--- a/BackTest/2020-01-26 BackTest FCT.xlsx
+++ b/BackTest/2020-01-26 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M274"/>
+  <dimension ref="A1:M275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>28.99</v>
       </c>
       <c r="F2" t="n">
-        <v>8802.5579</v>
+        <v>26946.8821</v>
       </c>
       <c r="G2" t="n">
-        <v>29.38200000000001</v>
+        <v>29.39216666666668</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.86</v>
+        <v>28.99</v>
       </c>
       <c r="C3" t="n">
-        <v>28.55</v>
+        <v>28.99</v>
       </c>
       <c r="D3" t="n">
-        <v>28.86</v>
+        <v>28.99</v>
       </c>
       <c r="E3" t="n">
-        <v>28.55</v>
+        <v>28.99</v>
       </c>
       <c r="F3" t="n">
-        <v>38626.9871</v>
+        <v>8802.5579</v>
       </c>
       <c r="G3" t="n">
-        <v>29.36450000000001</v>
+        <v>29.38200000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.7</v>
+        <v>28.86</v>
       </c>
       <c r="C4" t="n">
-        <v>28.7</v>
+        <v>28.55</v>
       </c>
       <c r="D4" t="n">
-        <v>28.7</v>
+        <v>28.86</v>
       </c>
       <c r="E4" t="n">
-        <v>28.7</v>
+        <v>28.55</v>
       </c>
       <c r="F4" t="n">
-        <v>20333.0017</v>
+        <v>38626.9871</v>
       </c>
       <c r="G4" t="n">
-        <v>29.34650000000001</v>
+        <v>29.36450000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>28.7</v>
       </c>
       <c r="F5" t="n">
-        <v>36480.9983</v>
+        <v>20333.0017</v>
       </c>
       <c r="G5" t="n">
-        <v>29.32733333333335</v>
+        <v>29.34650000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.71</v>
+        <v>28.7</v>
       </c>
       <c r="C6" t="n">
-        <v>29.17</v>
+        <v>28.7</v>
       </c>
       <c r="D6" t="n">
-        <v>29.17</v>
+        <v>28.7</v>
       </c>
       <c r="E6" t="n">
-        <v>28.71</v>
+        <v>28.7</v>
       </c>
       <c r="F6" t="n">
-        <v>781.3</v>
+        <v>36480.9983</v>
       </c>
       <c r="G6" t="n">
-        <v>29.31333333333335</v>
+        <v>29.32733333333335</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.17</v>
+        <v>28.71</v>
       </c>
       <c r="C7" t="n">
         <v>29.17</v>
@@ -617,13 +617,13 @@
         <v>29.17</v>
       </c>
       <c r="E7" t="n">
-        <v>29.17</v>
+        <v>28.71</v>
       </c>
       <c r="F7" t="n">
-        <v>711.8016</v>
+        <v>781.3</v>
       </c>
       <c r="G7" t="n">
-        <v>29.30133333333335</v>
+        <v>29.31333333333335</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.21</v>
+        <v>29.17</v>
       </c>
       <c r="C8" t="n">
-        <v>29.21</v>
+        <v>29.17</v>
       </c>
       <c r="D8" t="n">
-        <v>29.21</v>
+        <v>29.17</v>
       </c>
       <c r="E8" t="n">
-        <v>29.21</v>
+        <v>29.17</v>
       </c>
       <c r="F8" t="n">
-        <v>492.0564</v>
+        <v>711.8016</v>
       </c>
       <c r="G8" t="n">
-        <v>29.29483333333335</v>
+        <v>29.30133333333335</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.73</v>
+        <v>29.21</v>
       </c>
       <c r="C9" t="n">
-        <v>28.82</v>
+        <v>29.21</v>
       </c>
       <c r="D9" t="n">
-        <v>28.82</v>
+        <v>29.21</v>
       </c>
       <c r="E9" t="n">
-        <v>28.73</v>
+        <v>29.21</v>
       </c>
       <c r="F9" t="n">
-        <v>220.0861</v>
+        <v>492.0564</v>
       </c>
       <c r="G9" t="n">
-        <v>29.28350000000001</v>
+        <v>29.29483333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>28.73</v>
       </c>
       <c r="C10" t="n">
-        <v>28.73</v>
+        <v>28.82</v>
       </c>
       <c r="D10" t="n">
-        <v>28.73</v>
+        <v>28.82</v>
       </c>
       <c r="E10" t="n">
         <v>28.73</v>
       </c>
       <c r="F10" t="n">
-        <v>598.6508</v>
+        <v>220.0861</v>
       </c>
       <c r="G10" t="n">
-        <v>29.26566666666668</v>
+        <v>29.28350000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.56</v>
+        <v>28.73</v>
       </c>
       <c r="C11" t="n">
-        <v>28.6</v>
+        <v>28.73</v>
       </c>
       <c r="D11" t="n">
-        <v>28.6</v>
+        <v>28.73</v>
       </c>
       <c r="E11" t="n">
-        <v>28.56</v>
+        <v>28.73</v>
       </c>
       <c r="F11" t="n">
-        <v>789.1</v>
+        <v>598.6508</v>
       </c>
       <c r="G11" t="n">
-        <v>29.24566666666668</v>
+        <v>29.26566666666668</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.6</v>
+        <v>28.56</v>
       </c>
       <c r="C12" t="n">
         <v>28.6</v>
@@ -792,13 +792,13 @@
         <v>28.6</v>
       </c>
       <c r="E12" t="n">
-        <v>28.6</v>
+        <v>28.56</v>
       </c>
       <c r="F12" t="n">
-        <v>4746.4433</v>
+        <v>789.1</v>
       </c>
       <c r="G12" t="n">
-        <v>29.22733333333334</v>
+        <v>29.24566666666668</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28.55</v>
+        <v>28.6</v>
       </c>
       <c r="C13" t="n">
-        <v>28.55</v>
+        <v>28.6</v>
       </c>
       <c r="D13" t="n">
-        <v>28.55</v>
+        <v>28.6</v>
       </c>
       <c r="E13" t="n">
-        <v>28.55</v>
+        <v>28.6</v>
       </c>
       <c r="F13" t="n">
-        <v>18.1818</v>
+        <v>4746.4433</v>
       </c>
       <c r="G13" t="n">
-        <v>29.20816666666668</v>
+        <v>29.22733333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.6</v>
+        <v>28.55</v>
       </c>
       <c r="C14" t="n">
-        <v>28.6</v>
+        <v>28.55</v>
       </c>
       <c r="D14" t="n">
-        <v>28.6</v>
+        <v>28.55</v>
       </c>
       <c r="E14" t="n">
-        <v>28.6</v>
+        <v>28.55</v>
       </c>
       <c r="F14" t="n">
-        <v>1061.6794</v>
+        <v>18.1818</v>
       </c>
       <c r="G14" t="n">
-        <v>29.18983333333334</v>
+        <v>29.20816666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28.72</v>
+        <v>28.6</v>
       </c>
       <c r="C15" t="n">
-        <v>28.73</v>
+        <v>28.6</v>
       </c>
       <c r="D15" t="n">
-        <v>28.73</v>
+        <v>28.6</v>
       </c>
       <c r="E15" t="n">
-        <v>28.72</v>
+        <v>28.6</v>
       </c>
       <c r="F15" t="n">
-        <v>28400.8359</v>
+        <v>1061.6794</v>
       </c>
       <c r="G15" t="n">
-        <v>29.18366666666668</v>
+        <v>29.18983333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>28.74</v>
+        <v>28.72</v>
       </c>
       <c r="C16" t="n">
-        <v>29.16</v>
+        <v>28.73</v>
       </c>
       <c r="D16" t="n">
-        <v>29.16</v>
+        <v>28.73</v>
       </c>
       <c r="E16" t="n">
-        <v>28.74</v>
+        <v>28.72</v>
       </c>
       <c r="F16" t="n">
-        <v>768.3</v>
+        <v>28400.8359</v>
       </c>
       <c r="G16" t="n">
-        <v>29.18466666666668</v>
+        <v>29.18366666666668</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>28.72</v>
+        <v>28.74</v>
       </c>
       <c r="C17" t="n">
-        <v>28.61</v>
+        <v>29.16</v>
       </c>
       <c r="D17" t="n">
-        <v>28.72</v>
+        <v>29.16</v>
       </c>
       <c r="E17" t="n">
-        <v>28.61</v>
+        <v>28.74</v>
       </c>
       <c r="F17" t="n">
-        <v>6275.4623</v>
+        <v>768.3</v>
       </c>
       <c r="G17" t="n">
-        <v>29.17950000000001</v>
+        <v>29.18466666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>28.62</v>
+        <v>28.72</v>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>28.61</v>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
+        <v>28.72</v>
       </c>
       <c r="E18" t="n">
-        <v>28.62</v>
+        <v>28.61</v>
       </c>
       <c r="F18" t="n">
-        <v>738.4</v>
+        <v>6275.4623</v>
       </c>
       <c r="G18" t="n">
-        <v>29.17116666666668</v>
+        <v>29.17950000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>29.1</v>
+        <v>28.62</v>
       </c>
       <c r="C19" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E19" t="n">
-        <v>29.1</v>
+        <v>28.62</v>
       </c>
       <c r="F19" t="n">
-        <v>34265.30553109589</v>
+        <v>738.4</v>
       </c>
       <c r="G19" t="n">
-        <v>29.17583333333334</v>
+        <v>29.17116666666668</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C20" t="n">
         <v>29.2</v>
@@ -1072,13 +1072,13 @@
         <v>29.2</v>
       </c>
       <c r="E20" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F20" t="n">
-        <v>5929.3109</v>
+        <v>34265.30553109589</v>
       </c>
       <c r="G20" t="n">
-        <v>29.17083333333334</v>
+        <v>29.17583333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>28.74</v>
+        <v>29.2</v>
       </c>
       <c r="C21" t="n">
         <v>29.2</v>
@@ -1107,13 +1107,13 @@
         <v>29.2</v>
       </c>
       <c r="E21" t="n">
-        <v>28.74</v>
+        <v>29.2</v>
       </c>
       <c r="F21" t="n">
-        <v>716.3</v>
+        <v>5929.3109</v>
       </c>
       <c r="G21" t="n">
-        <v>29.17516666666668</v>
+        <v>29.17083333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29</v>
+        <v>28.74</v>
       </c>
       <c r="C22" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E22" t="n">
-        <v>28.9</v>
+        <v>28.74</v>
       </c>
       <c r="F22" t="n">
-        <v>5929.3109</v>
+        <v>716.3</v>
       </c>
       <c r="G22" t="n">
-        <v>29.17466666666668</v>
+        <v>29.17516666666668</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="D23" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E23" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F23" t="n">
         <v>5929.3109</v>
       </c>
       <c r="G23" t="n">
-        <v>29.16816666666668</v>
+        <v>29.17466666666668</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.19</v>
+        <v>29.1</v>
       </c>
       <c r="C24" t="n">
-        <v>29.19</v>
+        <v>29.1</v>
       </c>
       <c r="D24" t="n">
-        <v>29.19</v>
+        <v>29.1</v>
       </c>
       <c r="E24" t="n">
-        <v>29.19</v>
+        <v>29.1</v>
       </c>
       <c r="F24" t="n">
-        <v>7337.8913</v>
+        <v>5929.3109</v>
       </c>
       <c r="G24" t="n">
-        <v>29.17433333333334</v>
+        <v>29.16816666666668</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29.2</v>
+        <v>29.19</v>
       </c>
       <c r="C25" t="n">
-        <v>29.39</v>
+        <v>29.19</v>
       </c>
       <c r="D25" t="n">
-        <v>29.39</v>
+        <v>29.19</v>
       </c>
       <c r="E25" t="n">
-        <v>29.2</v>
+        <v>29.19</v>
       </c>
       <c r="F25" t="n">
-        <v>50240.04816890411</v>
+        <v>7337.8913</v>
       </c>
       <c r="G25" t="n">
-        <v>29.18533333333335</v>
+        <v>29.17433333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C26" t="n">
         <v>29.39</v>
       </c>
-      <c r="C26" t="n">
-        <v>29.48</v>
-      </c>
       <c r="D26" t="n">
-        <v>29.48</v>
+        <v>29.39</v>
       </c>
       <c r="E26" t="n">
-        <v>29.39</v>
+        <v>29.2</v>
       </c>
       <c r="F26" t="n">
-        <v>748.8</v>
+        <v>50240.04816890411</v>
       </c>
       <c r="G26" t="n">
-        <v>29.19916666666668</v>
+        <v>29.18533333333335</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="C27" t="n">
         <v>29.48</v>
       </c>
-      <c r="C27" t="n">
-        <v>29.59</v>
-      </c>
       <c r="D27" t="n">
-        <v>29.59</v>
+        <v>29.48</v>
       </c>
       <c r="E27" t="n">
-        <v>29.48</v>
+        <v>29.39</v>
       </c>
       <c r="F27" t="n">
-        <v>10159.96890939507</v>
+        <v>748.8</v>
       </c>
       <c r="G27" t="n">
-        <v>29.20900000000001</v>
+        <v>29.19916666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.59</v>
+        <v>29.48</v>
       </c>
       <c r="C28" t="n">
         <v>29.59</v>
@@ -1352,13 +1352,13 @@
         <v>29.59</v>
       </c>
       <c r="E28" t="n">
-        <v>29.59</v>
+        <v>29.48</v>
       </c>
       <c r="F28" t="n">
-        <v>51943.05529060493</v>
+        <v>10159.96890939507</v>
       </c>
       <c r="G28" t="n">
-        <v>29.22450000000001</v>
+        <v>29.20900000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>29.61</v>
+        <v>29.59</v>
       </c>
       <c r="C29" t="n">
-        <v>29.61</v>
+        <v>29.59</v>
       </c>
       <c r="D29" t="n">
-        <v>29.61</v>
+        <v>29.59</v>
       </c>
       <c r="E29" t="n">
-        <v>29.61</v>
+        <v>29.59</v>
       </c>
       <c r="F29" t="n">
-        <v>880.6126</v>
+        <v>51943.05529060493</v>
       </c>
       <c r="G29" t="n">
-        <v>29.24033333333334</v>
+        <v>29.22450000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>29.75</v>
+        <v>29.61</v>
       </c>
       <c r="C30" t="n">
-        <v>29.77</v>
+        <v>29.61</v>
       </c>
       <c r="D30" t="n">
-        <v>29.77</v>
+        <v>29.61</v>
       </c>
       <c r="E30" t="n">
-        <v>29.75</v>
+        <v>29.61</v>
       </c>
       <c r="F30" t="n">
-        <v>14238.0504</v>
+        <v>880.6126</v>
       </c>
       <c r="G30" t="n">
-        <v>29.259</v>
+        <v>29.24033333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>29.75</v>
       </c>
       <c r="C31" t="n">
-        <v>29.59</v>
+        <v>29.77</v>
       </c>
       <c r="D31" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="E31" t="n">
         <v>29.75</v>
       </c>
-      <c r="E31" t="n">
-        <v>29.59</v>
-      </c>
       <c r="F31" t="n">
-        <v>60565.3575</v>
+        <v>14238.0504</v>
       </c>
       <c r="G31" t="n">
-        <v>29.26883333333334</v>
+        <v>29.259</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.59</v>
+        <v>29.75</v>
       </c>
       <c r="C32" t="n">
         <v>29.59</v>
       </c>
       <c r="D32" t="n">
-        <v>29.59</v>
+        <v>29.75</v>
       </c>
       <c r="E32" t="n">
         <v>29.59</v>
       </c>
       <c r="F32" t="n">
-        <v>4682.649309395066</v>
+        <v>60565.3575</v>
       </c>
       <c r="G32" t="n">
-        <v>29.28366666666667</v>
+        <v>29.26883333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,28 +1518,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29.5</v>
+        <v>29.59</v>
       </c>
       <c r="C33" t="n">
-        <v>29.5</v>
+        <v>29.59</v>
       </c>
       <c r="D33" t="n">
-        <v>29.5</v>
+        <v>29.59</v>
       </c>
       <c r="E33" t="n">
-        <v>29.5</v>
+        <v>29.59</v>
       </c>
       <c r="F33" t="n">
-        <v>1025.4967</v>
+        <v>4682.649309395066</v>
       </c>
       <c r="G33" t="n">
-        <v>29.2975</v>
+        <v>29.28366666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>29.42</v>
+        <v>29.5</v>
       </c>
       <c r="C34" t="n">
-        <v>29.42</v>
+        <v>29.5</v>
       </c>
       <c r="D34" t="n">
-        <v>29.42</v>
+        <v>29.5</v>
       </c>
       <c r="E34" t="n">
-        <v>29.42</v>
+        <v>29.5</v>
       </c>
       <c r="F34" t="n">
-        <v>4606.4274</v>
+        <v>1025.4967</v>
       </c>
       <c r="G34" t="n">
-        <v>29.291</v>
+        <v>29.2975</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>29.42</v>
       </c>
       <c r="C35" t="n">
-        <v>29.74</v>
+        <v>29.42</v>
       </c>
       <c r="D35" t="n">
-        <v>29.74</v>
+        <v>29.42</v>
       </c>
       <c r="E35" t="n">
         <v>29.42</v>
       </c>
       <c r="F35" t="n">
-        <v>11722.88667094822</v>
+        <v>4606.4274</v>
       </c>
       <c r="G35" t="n">
-        <v>29.28983333333333</v>
+        <v>29.291</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>29.5</v>
+        <v>29.42</v>
       </c>
       <c r="C36" t="n">
         <v>29.74</v>
@@ -1632,13 +1632,13 @@
         <v>29.74</v>
       </c>
       <c r="E36" t="n">
-        <v>29.5</v>
+        <v>29.42</v>
       </c>
       <c r="F36" t="n">
-        <v>769.6</v>
+        <v>11722.88667094822</v>
       </c>
       <c r="G36" t="n">
-        <v>29.28533333333333</v>
+        <v>29.28983333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>29.42</v>
+        <v>29.5</v>
       </c>
       <c r="C37" t="n">
-        <v>29.42</v>
+        <v>29.74</v>
       </c>
       <c r="D37" t="n">
-        <v>29.42</v>
+        <v>29.74</v>
       </c>
       <c r="E37" t="n">
-        <v>29.42</v>
+        <v>29.5</v>
       </c>
       <c r="F37" t="n">
-        <v>4968.1552</v>
+        <v>769.6</v>
       </c>
       <c r="G37" t="n">
-        <v>29.27733333333333</v>
+        <v>29.28533333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>29.4</v>
+        <v>29.42</v>
       </c>
       <c r="C38" t="n">
-        <v>29.4</v>
+        <v>29.42</v>
       </c>
       <c r="D38" t="n">
-        <v>29.4</v>
+        <v>29.42</v>
       </c>
       <c r="E38" t="n">
-        <v>29.4</v>
+        <v>29.42</v>
       </c>
       <c r="F38" t="n">
-        <v>23893.8391</v>
+        <v>4968.1552</v>
       </c>
       <c r="G38" t="n">
-        <v>29.2805</v>
+        <v>29.27733333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>29.39</v>
+        <v>29.4</v>
       </c>
       <c r="C39" t="n">
-        <v>29.39</v>
+        <v>29.4</v>
       </c>
       <c r="D39" t="n">
         <v>29.4</v>
       </c>
       <c r="E39" t="n">
-        <v>29.39</v>
+        <v>29.4</v>
       </c>
       <c r="F39" t="n">
-        <v>13461.9348</v>
+        <v>23893.8391</v>
       </c>
       <c r="G39" t="n">
-        <v>29.28416666666667</v>
+        <v>29.2805</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>29.2</v>
+        <v>29.39</v>
       </c>
       <c r="C40" t="n">
-        <v>29.2</v>
+        <v>29.39</v>
       </c>
       <c r="D40" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E40" t="n">
-        <v>29.2</v>
+        <v>29.39</v>
       </c>
       <c r="F40" t="n">
-        <v>15711.25543109589</v>
+        <v>13461.9348</v>
       </c>
       <c r="G40" t="n">
-        <v>29.27800000000001</v>
+        <v>29.28416666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29.19</v>
+        <v>29.2</v>
       </c>
       <c r="C41" t="n">
-        <v>29.17</v>
+        <v>29.2</v>
       </c>
       <c r="D41" t="n">
-        <v>29.19</v>
+        <v>29.2</v>
       </c>
       <c r="E41" t="n">
-        <v>29.17</v>
+        <v>29.2</v>
       </c>
       <c r="F41" t="n">
-        <v>1188.7229</v>
+        <v>15711.25543109589</v>
       </c>
       <c r="G41" t="n">
-        <v>29.27583333333334</v>
+        <v>29.27800000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>29.14</v>
+        <v>29.19</v>
       </c>
       <c r="C42" t="n">
-        <v>29.2</v>
+        <v>29.17</v>
       </c>
       <c r="D42" t="n">
-        <v>29.2</v>
+        <v>29.19</v>
       </c>
       <c r="E42" t="n">
-        <v>29.14</v>
+        <v>29.17</v>
       </c>
       <c r="F42" t="n">
-        <v>10256.56628633562</v>
+        <v>1188.7229</v>
       </c>
       <c r="G42" t="n">
-        <v>29.27416666666668</v>
+        <v>29.27583333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>29.2</v>
+        <v>29.14</v>
       </c>
       <c r="C43" t="n">
         <v>29.2</v>
@@ -1877,13 +1877,13 @@
         <v>29.2</v>
       </c>
       <c r="E43" t="n">
-        <v>29</v>
+        <v>29.14</v>
       </c>
       <c r="F43" t="n">
-        <v>957.8745</v>
+        <v>10256.56628633562</v>
       </c>
       <c r="G43" t="n">
-        <v>29.26416666666668</v>
+        <v>29.27416666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>28.87</v>
+        <v>29.2</v>
       </c>
       <c r="C44" t="n">
-        <v>28.87</v>
+        <v>29.2</v>
       </c>
       <c r="D44" t="n">
-        <v>28.87</v>
+        <v>29.2</v>
       </c>
       <c r="E44" t="n">
-        <v>28.87</v>
+        <v>29</v>
       </c>
       <c r="F44" t="n">
-        <v>11195.5913</v>
+        <v>957.8745</v>
       </c>
       <c r="G44" t="n">
-        <v>29.24866666666668</v>
+        <v>29.26416666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>28.87</v>
       </c>
       <c r="F45" t="n">
-        <v>6927.606511950121</v>
+        <v>11195.5913</v>
       </c>
       <c r="G45" t="n">
-        <v>29.23166666666667</v>
+        <v>29.24866666666668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>28.86</v>
+        <v>28.87</v>
       </c>
       <c r="C46" t="n">
-        <v>28.86</v>
+        <v>28.87</v>
       </c>
       <c r="D46" t="n">
-        <v>28.86</v>
+        <v>28.87</v>
       </c>
       <c r="E46" t="n">
-        <v>28.86</v>
+        <v>28.87</v>
       </c>
       <c r="F46" t="n">
-        <v>15969.2185</v>
+        <v>6927.606511950121</v>
       </c>
       <c r="G46" t="n">
-        <v>29.21433333333334</v>
+        <v>29.23166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>28.86</v>
       </c>
       <c r="F47" t="n">
-        <v>330.871</v>
+        <v>15969.2185</v>
       </c>
       <c r="G47" t="n">
-        <v>29.197</v>
+        <v>29.21433333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>28.82</v>
+        <v>28.86</v>
       </c>
       <c r="C48" t="n">
-        <v>28.82</v>
+        <v>28.86</v>
       </c>
       <c r="D48" t="n">
-        <v>28.82</v>
+        <v>28.86</v>
       </c>
       <c r="E48" t="n">
-        <v>28.82</v>
+        <v>28.86</v>
       </c>
       <c r="F48" t="n">
-        <v>745.579</v>
+        <v>330.871</v>
       </c>
       <c r="G48" t="n">
-        <v>29.17899999999999</v>
+        <v>29.197</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>28.82</v>
       </c>
       <c r="F49" t="n">
-        <v>54237.4269</v>
+        <v>745.579</v>
       </c>
       <c r="G49" t="n">
-        <v>29.15966666666666</v>
+        <v>29.17899999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>28.82</v>
       </c>
       <c r="F50" t="n">
-        <v>36.8526</v>
+        <v>54237.4269</v>
       </c>
       <c r="G50" t="n">
-        <v>29.14016666666666</v>
+        <v>29.15966666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>28.8</v>
+        <v>28.82</v>
       </c>
       <c r="C51" t="n">
-        <v>28.8</v>
+        <v>28.82</v>
       </c>
       <c r="D51" t="n">
-        <v>28.8</v>
+        <v>28.82</v>
       </c>
       <c r="E51" t="n">
-        <v>28.8</v>
+        <v>28.82</v>
       </c>
       <c r="F51" t="n">
-        <v>8784.454</v>
+        <v>36.8526</v>
       </c>
       <c r="G51" t="n">
-        <v>29.13183333333333</v>
+        <v>29.14016666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>28.82</v>
+        <v>28.8</v>
       </c>
       <c r="C52" t="n">
-        <v>28.82</v>
+        <v>28.8</v>
       </c>
       <c r="D52" t="n">
-        <v>28.82</v>
+        <v>28.8</v>
       </c>
       <c r="E52" t="n">
-        <v>28.82</v>
+        <v>28.8</v>
       </c>
       <c r="F52" t="n">
-        <v>3712.3295</v>
+        <v>8784.454</v>
       </c>
       <c r="G52" t="n">
-        <v>29.12383333333333</v>
+        <v>29.13183333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>28.9</v>
+        <v>28.82</v>
       </c>
       <c r="C53" t="n">
-        <v>28.9</v>
+        <v>28.82</v>
       </c>
       <c r="D53" t="n">
-        <v>28.9</v>
+        <v>28.82</v>
       </c>
       <c r="E53" t="n">
-        <v>28.9</v>
+        <v>28.82</v>
       </c>
       <c r="F53" t="n">
-        <v>3142.5809</v>
+        <v>3712.3295</v>
       </c>
       <c r="G53" t="n">
-        <v>29.11716666666666</v>
+        <v>29.12383333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>28.74</v>
+        <v>28.9</v>
       </c>
       <c r="C54" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="D54" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E54" t="n">
-        <v>28.74</v>
+        <v>28.9</v>
       </c>
       <c r="F54" t="n">
-        <v>735.8</v>
+        <v>3142.5809</v>
       </c>
       <c r="G54" t="n">
-        <v>29.10733333333333</v>
+        <v>29.11716666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>28.74</v>
       </c>
       <c r="C55" t="n">
-        <v>28.74</v>
+        <v>28.8</v>
       </c>
       <c r="D55" t="n">
-        <v>28.74</v>
+        <v>28.8</v>
       </c>
       <c r="E55" t="n">
         <v>28.74</v>
       </c>
       <c r="F55" t="n">
-        <v>41697.7146</v>
+        <v>735.8</v>
       </c>
       <c r="G55" t="n">
-        <v>29.09949999999999</v>
+        <v>29.10733333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>28.8</v>
+        <v>28.74</v>
       </c>
       <c r="C56" t="n">
-        <v>28.8</v>
+        <v>28.74</v>
       </c>
       <c r="D56" t="n">
-        <v>28.8</v>
+        <v>28.74</v>
       </c>
       <c r="E56" t="n">
-        <v>28.8</v>
+        <v>28.74</v>
       </c>
       <c r="F56" t="n">
-        <v>26202.5008</v>
+        <v>41697.7146</v>
       </c>
       <c r="G56" t="n">
-        <v>29.08966666666666</v>
+        <v>29.09949999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.21</v>
+        <v>28.8</v>
       </c>
       <c r="C57" t="n">
-        <v>29.21</v>
+        <v>28.8</v>
       </c>
       <c r="D57" t="n">
-        <v>29.21</v>
+        <v>28.8</v>
       </c>
       <c r="E57" t="n">
-        <v>29.21</v>
+        <v>28.8</v>
       </c>
       <c r="F57" t="n">
-        <v>693.9625</v>
+        <v>26202.5008</v>
       </c>
       <c r="G57" t="n">
-        <v>29.08816666666666</v>
+        <v>29.08966666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>29.21</v>
       </c>
       <c r="C58" t="n">
-        <v>29.57</v>
+        <v>29.21</v>
       </c>
       <c r="D58" t="n">
-        <v>29.57</v>
+        <v>29.21</v>
       </c>
       <c r="E58" t="n">
         <v>29.21</v>
       </c>
       <c r="F58" t="n">
-        <v>765.7</v>
+        <v>693.9625</v>
       </c>
       <c r="G58" t="n">
-        <v>29.09483333333332</v>
+        <v>29.08816666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>28.82</v>
+        <v>29.21</v>
       </c>
       <c r="C59" t="n">
-        <v>28.82</v>
+        <v>29.57</v>
       </c>
       <c r="D59" t="n">
-        <v>28.82</v>
+        <v>29.57</v>
       </c>
       <c r="E59" t="n">
-        <v>28.82</v>
+        <v>29.21</v>
       </c>
       <c r="F59" t="n">
-        <v>6756.3543</v>
+        <v>765.7</v>
       </c>
       <c r="G59" t="n">
-        <v>29.08683333333332</v>
+        <v>29.09483333333332</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>29.21</v>
+        <v>28.82</v>
       </c>
       <c r="C60" t="n">
-        <v>29.21</v>
+        <v>28.82</v>
       </c>
       <c r="D60" t="n">
-        <v>29.21</v>
+        <v>28.82</v>
       </c>
       <c r="E60" t="n">
-        <v>29.21</v>
+        <v>28.82</v>
       </c>
       <c r="F60" t="n">
-        <v>693.9625</v>
+        <v>6756.3543</v>
       </c>
       <c r="G60" t="n">
-        <v>29.08749999999999</v>
+        <v>29.08683333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>29.21</v>
       </c>
       <c r="F61" t="n">
-        <v>11929.2771</v>
+        <v>693.9625</v>
       </c>
       <c r="G61" t="n">
-        <v>29.09116666666666</v>
+        <v>29.08749999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>29.21</v>
       </c>
       <c r="F62" t="n">
-        <v>172.1636</v>
+        <v>11929.2771</v>
       </c>
       <c r="G62" t="n">
-        <v>29.09483333333332</v>
+        <v>29.09116666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>29.3</v>
+        <v>29.21</v>
       </c>
       <c r="C63" t="n">
-        <v>29.3</v>
+        <v>29.21</v>
       </c>
       <c r="D63" t="n">
-        <v>29.3</v>
+        <v>29.21</v>
       </c>
       <c r="E63" t="n">
-        <v>29.3</v>
+        <v>29.21</v>
       </c>
       <c r="F63" t="n">
-        <v>6789.9552</v>
+        <v>172.1636</v>
       </c>
       <c r="G63" t="n">
-        <v>29.10733333333332</v>
+        <v>29.09483333333332</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29.39</v>
+        <v>29.3</v>
       </c>
       <c r="C64" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D64" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E64" t="n">
-        <v>29.39</v>
+        <v>29.3</v>
       </c>
       <c r="F64" t="n">
-        <v>15249.00889887755</v>
+        <v>6789.9552</v>
       </c>
       <c r="G64" t="n">
-        <v>29.11899999999999</v>
+        <v>29.10733333333332</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>29.4</v>
+        <v>29.39</v>
       </c>
       <c r="C65" t="n">
         <v>29.4</v>
@@ -2647,13 +2647,13 @@
         <v>29.4</v>
       </c>
       <c r="E65" t="n">
-        <v>29.21</v>
+        <v>29.39</v>
       </c>
       <c r="F65" t="n">
-        <v>7182.0224</v>
+        <v>15249.00889887755</v>
       </c>
       <c r="G65" t="n">
-        <v>29.13066666666666</v>
+        <v>29.11899999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29.21</v>
+        <v>29.4</v>
       </c>
       <c r="C66" t="n">
-        <v>29.21</v>
+        <v>29.4</v>
       </c>
       <c r="D66" t="n">
-        <v>29.21</v>
+        <v>29.4</v>
       </c>
       <c r="E66" t="n">
         <v>29.21</v>
       </c>
       <c r="F66" t="n">
-        <v>7014.4496</v>
+        <v>7182.0224</v>
       </c>
       <c r="G66" t="n">
-        <v>29.13133333333332</v>
+        <v>29.13066666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>29.21</v>
       </c>
       <c r="C67" t="n">
-        <v>29.4</v>
+        <v>29.21</v>
       </c>
       <c r="D67" t="n">
-        <v>29.4</v>
+        <v>29.21</v>
       </c>
       <c r="E67" t="n">
         <v>29.21</v>
       </c>
       <c r="F67" t="n">
-        <v>763.1</v>
+        <v>7014.4496</v>
       </c>
       <c r="G67" t="n">
-        <v>29.13516666666666</v>
+        <v>29.13133333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29.4</v>
+        <v>29.21</v>
       </c>
       <c r="C68" t="n">
         <v>29.4</v>
@@ -2752,13 +2752,13 @@
         <v>29.4</v>
       </c>
       <c r="E68" t="n">
-        <v>29.4</v>
+        <v>29.21</v>
       </c>
       <c r="F68" t="n">
-        <v>4173.304701122449</v>
+        <v>763.1</v>
       </c>
       <c r="G68" t="n">
-        <v>29.13833333333332</v>
+        <v>29.13516666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>29.55</v>
+        <v>29.4</v>
       </c>
       <c r="C69" t="n">
-        <v>29.55</v>
+        <v>29.4</v>
       </c>
       <c r="D69" t="n">
-        <v>29.55</v>
+        <v>29.4</v>
       </c>
       <c r="E69" t="n">
-        <v>29.55</v>
+        <v>29.4</v>
       </c>
       <c r="F69" t="n">
-        <v>8088.5521</v>
+        <v>4173.304701122449</v>
       </c>
       <c r="G69" t="n">
-        <v>29.15049999999999</v>
+        <v>29.13833333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29.59</v>
+        <v>29.55</v>
       </c>
       <c r="C70" t="n">
-        <v>29.61</v>
+        <v>29.55</v>
       </c>
       <c r="D70" t="n">
-        <v>29.61</v>
+        <v>29.55</v>
       </c>
       <c r="E70" t="n">
-        <v>29.59</v>
+        <v>29.55</v>
       </c>
       <c r="F70" t="n">
-        <v>8757.0699</v>
+        <v>8088.5521</v>
       </c>
       <c r="G70" t="n">
-        <v>29.16516666666666</v>
+        <v>29.15049999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>29.7</v>
+        <v>29.59</v>
       </c>
       <c r="C71" t="n">
-        <v>29.7</v>
+        <v>29.61</v>
       </c>
       <c r="D71" t="n">
-        <v>29.7</v>
+        <v>29.61</v>
       </c>
       <c r="E71" t="n">
-        <v>29.7</v>
+        <v>29.59</v>
       </c>
       <c r="F71" t="n">
-        <v>396.3458</v>
+        <v>8757.0699</v>
       </c>
       <c r="G71" t="n">
-        <v>29.18349999999999</v>
+        <v>29.16516666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2886,19 @@
         <v>29.7</v>
       </c>
       <c r="C72" t="n">
-        <v>29.73</v>
+        <v>29.7</v>
       </c>
       <c r="D72" t="n">
-        <v>29.73</v>
+        <v>29.7</v>
       </c>
       <c r="E72" t="n">
         <v>29.7</v>
       </c>
       <c r="F72" t="n">
-        <v>19821.2735</v>
+        <v>396.3458</v>
       </c>
       <c r="G72" t="n">
-        <v>29.20233333333333</v>
+        <v>29.18349999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>29.73</v>
+        <v>29.7</v>
       </c>
       <c r="C73" t="n">
         <v>29.73</v>
@@ -2927,13 +2927,13 @@
         <v>29.73</v>
       </c>
       <c r="E73" t="n">
-        <v>29.73</v>
+        <v>29.7</v>
       </c>
       <c r="F73" t="n">
-        <v>13268.1068</v>
+        <v>19821.2735</v>
       </c>
       <c r="G73" t="n">
-        <v>29.22199999999999</v>
+        <v>29.20233333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>29.71</v>
+        <v>29.73</v>
       </c>
       <c r="C74" t="n">
-        <v>29.7</v>
+        <v>29.73</v>
       </c>
       <c r="D74" t="n">
-        <v>29.71</v>
+        <v>29.73</v>
       </c>
       <c r="E74" t="n">
-        <v>29.7</v>
+        <v>29.73</v>
       </c>
       <c r="F74" t="n">
-        <v>51811.564</v>
+        <v>13268.1068</v>
       </c>
       <c r="G74" t="n">
-        <v>29.24033333333333</v>
+        <v>29.22199999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,28 +2988,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>29.7</v>
+        <v>29.71</v>
       </c>
       <c r="C75" t="n">
         <v>29.7</v>
       </c>
       <c r="D75" t="n">
-        <v>29.7</v>
+        <v>29.71</v>
       </c>
       <c r="E75" t="n">
         <v>29.7</v>
       </c>
       <c r="F75" t="n">
-        <v>33449.7661</v>
+        <v>51811.564</v>
       </c>
       <c r="G75" t="n">
-        <v>29.2565</v>
+        <v>29.24033333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3026,25 +3026,25 @@
         <v>29.7</v>
       </c>
       <c r="C76" t="n">
-        <v>29.74</v>
+        <v>29.7</v>
       </c>
       <c r="D76" t="n">
-        <v>29.74</v>
+        <v>29.7</v>
       </c>
       <c r="E76" t="n">
         <v>29.7</v>
       </c>
       <c r="F76" t="n">
-        <v>54809.3621</v>
+        <v>33449.7661</v>
       </c>
       <c r="G76" t="n">
-        <v>29.26616666666666</v>
+        <v>29.2565</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3058,28 +3058,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>29.51</v>
+        <v>29.7</v>
       </c>
       <c r="C77" t="n">
-        <v>29.73</v>
+        <v>29.74</v>
       </c>
       <c r="D77" t="n">
-        <v>29.73</v>
+        <v>29.74</v>
       </c>
       <c r="E77" t="n">
-        <v>29.51</v>
+        <v>29.7</v>
       </c>
       <c r="F77" t="n">
-        <v>743.6</v>
+        <v>54809.3621</v>
       </c>
       <c r="G77" t="n">
-        <v>29.28483333333333</v>
+        <v>29.26616666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3093,7 +3093,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>29.73</v>
+        <v>29.51</v>
       </c>
       <c r="C78" t="n">
         <v>29.73</v>
@@ -3102,19 +3102,19 @@
         <v>29.73</v>
       </c>
       <c r="E78" t="n">
-        <v>29.73</v>
+        <v>29.51</v>
       </c>
       <c r="F78" t="n">
-        <v>8290.268899999999</v>
+        <v>743.6</v>
       </c>
       <c r="G78" t="n">
-        <v>29.297</v>
+        <v>29.28483333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>29.5</v>
+        <v>29.73</v>
       </c>
       <c r="C79" t="n">
-        <v>29.5</v>
+        <v>29.73</v>
       </c>
       <c r="D79" t="n">
-        <v>29.5</v>
+        <v>29.73</v>
       </c>
       <c r="E79" t="n">
-        <v>29.5</v>
+        <v>29.73</v>
       </c>
       <c r="F79" t="n">
-        <v>19643.9853</v>
+        <v>8290.268899999999</v>
       </c>
       <c r="G79" t="n">
-        <v>29.302</v>
+        <v>29.297</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.41</v>
+        <v>29.5</v>
       </c>
       <c r="C80" t="n">
-        <v>29.41</v>
+        <v>29.5</v>
       </c>
       <c r="D80" t="n">
-        <v>29.41</v>
+        <v>29.5</v>
       </c>
       <c r="E80" t="n">
-        <v>29.41</v>
+        <v>29.5</v>
       </c>
       <c r="F80" t="n">
-        <v>3600</v>
+        <v>19643.9853</v>
       </c>
       <c r="G80" t="n">
-        <v>29.3055</v>
+        <v>29.302</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>29.5</v>
+        <v>29.41</v>
       </c>
       <c r="C81" t="n">
-        <v>29.5</v>
+        <v>29.41</v>
       </c>
       <c r="D81" t="n">
-        <v>29.5</v>
+        <v>29.41</v>
       </c>
       <c r="E81" t="n">
-        <v>29.5</v>
+        <v>29.41</v>
       </c>
       <c r="F81" t="n">
-        <v>13493.3046</v>
+        <v>3600</v>
       </c>
       <c r="G81" t="n">
-        <v>29.3105</v>
+        <v>29.3055</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="C82" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="D82" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="E82" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F82" t="n">
-        <v>5828.3531</v>
+        <v>13493.3046</v>
       </c>
       <c r="G82" t="n">
-        <v>29.32216666666666</v>
+        <v>29.3105</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>29.6</v>
       </c>
       <c r="F83" t="n">
-        <v>13815.6322</v>
+        <v>5828.3531</v>
       </c>
       <c r="G83" t="n">
-        <v>29.33049999999999</v>
+        <v>29.32216666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="C84" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D84" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="E84" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F84" t="n">
-        <v>6965.295</v>
+        <v>13815.6322</v>
       </c>
       <c r="G84" t="n">
-        <v>29.33566666666666</v>
+        <v>29.33049999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>29.5</v>
       </c>
       <c r="F85" t="n">
-        <v>1236.7285</v>
+        <v>6965.295</v>
       </c>
       <c r="G85" t="n">
-        <v>29.33749999999999</v>
+        <v>29.33566666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.41</v>
+        <v>29.5</v>
       </c>
       <c r="C86" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="D86" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="E86" t="n">
-        <v>29.41</v>
+        <v>29.5</v>
       </c>
       <c r="F86" t="n">
-        <v>734.5</v>
+        <v>1236.7285</v>
       </c>
       <c r="G86" t="n">
-        <v>29.33949999999999</v>
+        <v>29.33749999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.6</v>
+        <v>29.41</v>
       </c>
       <c r="C87" t="n">
         <v>29.6</v>
@@ -3417,13 +3417,13 @@
         <v>29.6</v>
       </c>
       <c r="E87" t="n">
-        <v>29.6</v>
+        <v>29.41</v>
       </c>
       <c r="F87" t="n">
-        <v>3022.2612</v>
+        <v>734.5</v>
       </c>
       <c r="G87" t="n">
-        <v>29.33966666666666</v>
+        <v>29.33949999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>29.73</v>
+        <v>29.6</v>
       </c>
       <c r="C88" t="n">
-        <v>29.73</v>
+        <v>29.6</v>
       </c>
       <c r="D88" t="n">
-        <v>29.73</v>
+        <v>29.6</v>
       </c>
       <c r="E88" t="n">
-        <v>29.73</v>
+        <v>29.6</v>
       </c>
       <c r="F88" t="n">
-        <v>16722.62207235116</v>
+        <v>3022.2612</v>
       </c>
       <c r="G88" t="n">
-        <v>29.34199999999999</v>
+        <v>29.33966666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>29.53</v>
+        <v>29.73</v>
       </c>
       <c r="C89" t="n">
-        <v>29.53</v>
+        <v>29.73</v>
       </c>
       <c r="D89" t="n">
-        <v>29.53</v>
+        <v>29.73</v>
       </c>
       <c r="E89" t="n">
-        <v>29.53</v>
+        <v>29.73</v>
       </c>
       <c r="F89" t="n">
-        <v>173.1645</v>
+        <v>16722.62207235116</v>
       </c>
       <c r="G89" t="n">
-        <v>29.34066666666666</v>
+        <v>29.34199999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>29.53</v>
       </c>
       <c r="F90" t="n">
-        <v>1503.7839</v>
+        <v>173.1645</v>
       </c>
       <c r="G90" t="n">
-        <v>29.33666666666666</v>
+        <v>29.34066666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>29.73</v>
+        <v>29.53</v>
       </c>
       <c r="C91" t="n">
-        <v>29.75</v>
+        <v>29.53</v>
       </c>
       <c r="D91" t="n">
-        <v>29.75</v>
+        <v>29.53</v>
       </c>
       <c r="E91" t="n">
-        <v>29.73</v>
+        <v>29.53</v>
       </c>
       <c r="F91" t="n">
-        <v>54116.75269573896</v>
+        <v>1503.7839</v>
       </c>
       <c r="G91" t="n">
-        <v>29.33933333333333</v>
+        <v>29.33666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>29.75</v>
+        <v>29.73</v>
       </c>
       <c r="C92" t="n">
         <v>29.75</v>
@@ -3592,13 +3592,13 @@
         <v>29.75</v>
       </c>
       <c r="E92" t="n">
-        <v>29.75</v>
+        <v>29.73</v>
       </c>
       <c r="F92" t="n">
-        <v>8666.244005042017</v>
+        <v>54116.75269573896</v>
       </c>
       <c r="G92" t="n">
-        <v>29.342</v>
+        <v>29.33933333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>29.75</v>
       </c>
       <c r="F93" t="n">
-        <v>8678.2394</v>
+        <v>8666.244005042017</v>
       </c>
       <c r="G93" t="n">
-        <v>29.34616666666666</v>
+        <v>29.342</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>29.75</v>
       </c>
       <c r="F94" t="n">
-        <v>117</v>
+        <v>8678.2394</v>
       </c>
       <c r="G94" t="n">
-        <v>29.35166666666666</v>
+        <v>29.34616666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,19 +3688,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>29.74</v>
+        <v>29.75</v>
       </c>
       <c r="C95" t="n">
-        <v>29.74</v>
+        <v>29.75</v>
       </c>
       <c r="D95" t="n">
-        <v>29.74</v>
+        <v>29.75</v>
       </c>
       <c r="E95" t="n">
-        <v>29.74</v>
+        <v>29.75</v>
       </c>
       <c r="F95" t="n">
-        <v>119.2333557498319</v>
+        <v>117</v>
       </c>
       <c r="G95" t="n">
         <v>29.35166666666666</v>
@@ -3723,7 +3723,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>29.62</v>
+        <v>29.74</v>
       </c>
       <c r="C96" t="n">
         <v>29.74</v>
@@ -3732,10 +3732,10 @@
         <v>29.74</v>
       </c>
       <c r="E96" t="n">
-        <v>29.62</v>
+        <v>29.74</v>
       </c>
       <c r="F96" t="n">
-        <v>741</v>
+        <v>119.2333557498319</v>
       </c>
       <c r="G96" t="n">
         <v>29.35166666666666</v>
@@ -3761,19 +3761,19 @@
         <v>29.62</v>
       </c>
       <c r="C97" t="n">
-        <v>29.5</v>
+        <v>29.74</v>
       </c>
       <c r="D97" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="E97" t="n">
         <v>29.62</v>
       </c>
-      <c r="E97" t="n">
-        <v>29.5</v>
-      </c>
       <c r="F97" t="n">
-        <v>15353.8315</v>
+        <v>741</v>
       </c>
       <c r="G97" t="n">
-        <v>29.35299999999999</v>
+        <v>29.35166666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>29.4</v>
+        <v>29.62</v>
       </c>
       <c r="C98" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D98" t="n">
-        <v>29.4</v>
+        <v>29.62</v>
       </c>
       <c r="E98" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F98" t="n">
-        <v>30868.76</v>
+        <v>15353.8315</v>
       </c>
       <c r="G98" t="n">
         <v>29.35299999999999</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>29.45</v>
+        <v>29.4</v>
       </c>
       <c r="C99" t="n">
-        <v>29.45</v>
+        <v>29.4</v>
       </c>
       <c r="D99" t="n">
-        <v>29.45</v>
+        <v>29.4</v>
       </c>
       <c r="E99" t="n">
-        <v>29.45</v>
+        <v>29.4</v>
       </c>
       <c r="F99" t="n">
-        <v>19254.0963</v>
+        <v>30868.76</v>
       </c>
       <c r="G99" t="n">
-        <v>29.35399999999999</v>
+        <v>29.35299999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>29.3</v>
+        <v>29.45</v>
       </c>
       <c r="C100" t="n">
-        <v>29.3</v>
+        <v>29.45</v>
       </c>
       <c r="D100" t="n">
-        <v>29.3</v>
+        <v>29.45</v>
       </c>
       <c r="E100" t="n">
-        <v>29.3</v>
+        <v>29.45</v>
       </c>
       <c r="F100" t="n">
-        <v>15253.8315</v>
+        <v>19254.0963</v>
       </c>
       <c r="G100" t="n">
-        <v>29.35566666666666</v>
+        <v>29.35399999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>29.45</v>
+        <v>29.3</v>
       </c>
       <c r="C101" t="n">
-        <v>29.45</v>
+        <v>29.3</v>
       </c>
       <c r="D101" t="n">
-        <v>29.45</v>
+        <v>29.3</v>
       </c>
       <c r="E101" t="n">
-        <v>29.45</v>
+        <v>29.3</v>
       </c>
       <c r="F101" t="n">
-        <v>42.2536</v>
+        <v>15253.8315</v>
       </c>
       <c r="G101" t="n">
-        <v>29.36033333333332</v>
+        <v>29.35566666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>29.3</v>
+        <v>29.45</v>
       </c>
       <c r="C102" t="n">
         <v>29.45</v>
@@ -3942,13 +3942,13 @@
         <v>29.45</v>
       </c>
       <c r="E102" t="n">
-        <v>29.16</v>
+        <v>29.45</v>
       </c>
       <c r="F102" t="n">
-        <v>759.2</v>
+        <v>42.2536</v>
       </c>
       <c r="G102" t="n">
-        <v>29.36449999999999</v>
+        <v>29.36033333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>29.16</v>
+        <v>29.3</v>
       </c>
       <c r="C103" t="n">
-        <v>29.16</v>
+        <v>29.45</v>
       </c>
       <c r="D103" t="n">
-        <v>29.16</v>
+        <v>29.45</v>
       </c>
       <c r="E103" t="n">
         <v>29.16</v>
       </c>
       <c r="F103" t="n">
-        <v>5501.5126</v>
+        <v>759.2</v>
       </c>
       <c r="G103" t="n">
-        <v>29.36383333333333</v>
+        <v>29.36449999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>29.45</v>
+        <v>29.16</v>
       </c>
       <c r="C104" t="n">
-        <v>29.72</v>
+        <v>29.16</v>
       </c>
       <c r="D104" t="n">
-        <v>29.72</v>
+        <v>29.16</v>
       </c>
       <c r="E104" t="n">
-        <v>29.45</v>
+        <v>29.16</v>
       </c>
       <c r="F104" t="n">
-        <v>41391.377</v>
+        <v>5501.5126</v>
       </c>
       <c r="G104" t="n">
-        <v>29.37799999999999</v>
+        <v>29.36383333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>29.4</v>
+        <v>29.45</v>
       </c>
       <c r="C105" t="n">
-        <v>29.3</v>
+        <v>29.72</v>
       </c>
       <c r="D105" t="n">
-        <v>29.4</v>
+        <v>29.72</v>
       </c>
       <c r="E105" t="n">
-        <v>29.2</v>
+        <v>29.45</v>
       </c>
       <c r="F105" t="n">
-        <v>31665.4386</v>
+        <v>41391.377</v>
       </c>
       <c r="G105" t="n">
-        <v>29.38516666666666</v>
+        <v>29.37799999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C106" t="n">
         <v>29.3</v>
       </c>
-      <c r="C106" t="n">
-        <v>29.17</v>
-      </c>
       <c r="D106" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E106" t="n">
-        <v>29.17</v>
+        <v>29.2</v>
       </c>
       <c r="F106" t="n">
-        <v>87775.0745</v>
+        <v>31665.4386</v>
       </c>
       <c r="G106" t="n">
-        <v>29.39033333333333</v>
+        <v>29.38516666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C107" t="n">
-        <v>29.5</v>
+        <v>29.17</v>
       </c>
       <c r="D107" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="E107" t="n">
-        <v>29.2</v>
+        <v>29.17</v>
       </c>
       <c r="F107" t="n">
-        <v>738.4</v>
+        <v>87775.0745</v>
       </c>
       <c r="G107" t="n">
-        <v>29.401</v>
+        <v>29.39033333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C108" t="n">
         <v>29.5</v>
       </c>
-      <c r="C108" t="n">
-        <v>29.6</v>
-      </c>
       <c r="D108" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="E108" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="F108" t="n">
-        <v>47039.7881</v>
+        <v>738.4</v>
       </c>
       <c r="G108" t="n">
-        <v>29.414</v>
+        <v>29.401</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C109" t="n">
         <v>29.6</v>
       </c>
-      <c r="C109" t="n">
-        <v>29.61</v>
-      </c>
       <c r="D109" t="n">
-        <v>29.61</v>
+        <v>29.6</v>
       </c>
       <c r="E109" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F109" t="n">
-        <v>67171.3805</v>
+        <v>47039.7881</v>
       </c>
       <c r="G109" t="n">
-        <v>29.42716666666666</v>
+        <v>29.414</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>29.61</v>
+        <v>29.6</v>
       </c>
       <c r="C110" t="n">
         <v>29.61</v>
@@ -4222,13 +4222,13 @@
         <v>29.61</v>
       </c>
       <c r="E110" t="n">
-        <v>29.61</v>
+        <v>29.6</v>
       </c>
       <c r="F110" t="n">
-        <v>40871.9262</v>
+        <v>67171.3805</v>
       </c>
       <c r="G110" t="n">
-        <v>29.44033333333333</v>
+        <v>29.42716666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>29.61</v>
       </c>
       <c r="F111" t="n">
-        <v>50811.5055</v>
+        <v>40871.9262</v>
       </c>
       <c r="G111" t="n">
-        <v>29.45383333333333</v>
+        <v>29.44033333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>29.6</v>
+        <v>29.61</v>
       </c>
       <c r="C112" t="n">
-        <v>29.6</v>
+        <v>29.61</v>
       </c>
       <c r="D112" t="n">
-        <v>29.6</v>
+        <v>29.61</v>
       </c>
       <c r="E112" t="n">
-        <v>29.6</v>
+        <v>29.61</v>
       </c>
       <c r="F112" t="n">
-        <v>22065.6822</v>
+        <v>50811.5055</v>
       </c>
       <c r="G112" t="n">
-        <v>29.46683333333333</v>
+        <v>29.45383333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="C113" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D113" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="E113" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="F113" t="n">
-        <v>37424.5207</v>
+        <v>22065.6822</v>
       </c>
       <c r="G113" t="n">
-        <v>29.47683333333333</v>
+        <v>29.46683333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4356,19 @@
         <v>29.3</v>
       </c>
       <c r="C114" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="D114" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="E114" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F114" t="n">
-        <v>18</v>
+        <v>37424.5207</v>
       </c>
       <c r="G114" t="n">
-        <v>29.48516666666666</v>
+        <v>29.47683333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,19 +4391,19 @@
         <v>29.3</v>
       </c>
       <c r="C115" t="n">
-        <v>29.19</v>
+        <v>29.3</v>
       </c>
       <c r="D115" t="n">
         <v>29.3</v>
       </c>
       <c r="E115" t="n">
-        <v>29.19</v>
+        <v>29.3</v>
       </c>
       <c r="F115" t="n">
-        <v>19368.4583</v>
+        <v>18</v>
       </c>
       <c r="G115" t="n">
-        <v>29.49266666666666</v>
+        <v>29.48516666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C116" t="n">
-        <v>29.4</v>
+        <v>29.19</v>
       </c>
       <c r="D116" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E116" t="n">
-        <v>29.2</v>
+        <v>29.19</v>
       </c>
       <c r="F116" t="n">
-        <v>703.3</v>
+        <v>19368.4583</v>
       </c>
       <c r="G116" t="n">
-        <v>29.50266666666666</v>
+        <v>29.49266666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,19 +4461,19 @@
         <v>29.2</v>
       </c>
       <c r="C117" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="D117" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E117" t="n">
         <v>29.2</v>
       </c>
       <c r="F117" t="n">
-        <v>9501.867099999999</v>
+        <v>703.3</v>
       </c>
       <c r="G117" t="n">
-        <v>29.5025</v>
+        <v>29.50266666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>29.2</v>
       </c>
       <c r="F118" t="n">
-        <v>7000</v>
+        <v>9501.867099999999</v>
       </c>
       <c r="G118" t="n">
-        <v>29.49633333333333</v>
+        <v>29.5025</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4531,19 @@
         <v>29.2</v>
       </c>
       <c r="C119" t="n">
-        <v>28.75</v>
+        <v>29.2</v>
       </c>
       <c r="D119" t="n">
         <v>29.2</v>
       </c>
       <c r="E119" t="n">
-        <v>28.75</v>
+        <v>29.2</v>
       </c>
       <c r="F119" t="n">
-        <v>262347.9712</v>
+        <v>7000</v>
       </c>
       <c r="G119" t="n">
-        <v>29.49516666666667</v>
+        <v>29.49633333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C120" t="n">
         <v>28.75</v>
       </c>
-      <c r="C120" t="n">
-        <v>28.5</v>
-      </c>
       <c r="D120" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E120" t="n">
         <v>28.75</v>
       </c>
-      <c r="E120" t="n">
-        <v>28.5</v>
-      </c>
       <c r="F120" t="n">
-        <v>586791.3221</v>
+        <v>262347.9712</v>
       </c>
       <c r="G120" t="n">
-        <v>29.48333333333333</v>
+        <v>29.49516666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>28.5</v>
+        <v>28.75</v>
       </c>
       <c r="C121" t="n">
         <v>28.5</v>
       </c>
       <c r="D121" t="n">
-        <v>28.5</v>
+        <v>28.75</v>
       </c>
       <c r="E121" t="n">
         <v>28.5</v>
       </c>
       <c r="F121" t="n">
-        <v>18</v>
+        <v>586791.3221</v>
       </c>
       <c r="G121" t="n">
-        <v>29.4715</v>
+        <v>29.48333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>28.51</v>
+        <v>28.5</v>
       </c>
       <c r="C122" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="D122" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E122" t="n">
         <v>28.5</v>
       </c>
       <c r="F122" t="n">
-        <v>726.7</v>
+        <v>18</v>
       </c>
       <c r="G122" t="n">
-        <v>29.463</v>
+        <v>29.4715</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>28.7</v>
+        <v>28.51</v>
       </c>
       <c r="C123" t="n">
         <v>28.7</v>
@@ -4677,13 +4677,13 @@
         <v>28.7</v>
       </c>
       <c r="E123" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F123" t="n">
-        <v>17007.826</v>
+        <v>726.7</v>
       </c>
       <c r="G123" t="n">
-        <v>29.453</v>
+        <v>29.463</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C124" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D124" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="E124" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F124" t="n">
-        <v>31921.6131</v>
+        <v>17007.826</v>
       </c>
       <c r="G124" t="n">
-        <v>29.438</v>
+        <v>29.453</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4741,19 +4741,19 @@
         <v>28.5</v>
       </c>
       <c r="C125" t="n">
-        <v>28.36</v>
+        <v>28.5</v>
       </c>
       <c r="D125" t="n">
         <v>28.5</v>
       </c>
       <c r="E125" t="n">
-        <v>28.36</v>
+        <v>28.5</v>
       </c>
       <c r="F125" t="n">
-        <v>30537.7525</v>
+        <v>31921.6131</v>
       </c>
       <c r="G125" t="n">
-        <v>29.42066666666666</v>
+        <v>29.438</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C126" t="n">
         <v>28.36</v>
       </c>
       <c r="D126" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="E126" t="n">
         <v>28.36</v>
       </c>
       <c r="F126" t="n">
-        <v>9286.819600000001</v>
+        <v>30537.7525</v>
       </c>
       <c r="G126" t="n">
-        <v>29.40649999999999</v>
+        <v>29.42066666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="C127" t="n">
-        <v>28.7</v>
+        <v>28.36</v>
       </c>
       <c r="D127" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="E127" t="n">
-        <v>28.7</v>
+        <v>28.36</v>
       </c>
       <c r="F127" t="n">
-        <v>77202.8011</v>
+        <v>9286.819600000001</v>
       </c>
       <c r="G127" t="n">
-        <v>29.39483333333333</v>
+        <v>29.40649999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>28.74</v>
+        <v>28.7</v>
       </c>
       <c r="C128" t="n">
         <v>28.7</v>
       </c>
       <c r="D128" t="n">
-        <v>28.74</v>
+        <v>28.7</v>
       </c>
       <c r="E128" t="n">
         <v>28.7</v>
       </c>
       <c r="F128" t="n">
-        <v>70900.3559</v>
+        <v>77202.8011</v>
       </c>
       <c r="G128" t="n">
-        <v>29.38316666666666</v>
+        <v>29.39483333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>28.7</v>
+        <v>28.74</v>
       </c>
       <c r="C129" t="n">
         <v>28.7</v>
       </c>
       <c r="D129" t="n">
-        <v>28.7</v>
+        <v>28.74</v>
       </c>
       <c r="E129" t="n">
         <v>28.7</v>
       </c>
       <c r="F129" t="n">
-        <v>28034.9261</v>
+        <v>70900.3559</v>
       </c>
       <c r="G129" t="n">
-        <v>29.36899999999999</v>
+        <v>29.38316666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>28.71</v>
+        <v>28.7</v>
       </c>
       <c r="C130" t="n">
-        <v>28.71</v>
+        <v>28.7</v>
       </c>
       <c r="D130" t="n">
-        <v>28.71</v>
+        <v>28.7</v>
       </c>
       <c r="E130" t="n">
-        <v>28.71</v>
+        <v>28.7</v>
       </c>
       <c r="F130" t="n">
-        <v>528.2722</v>
+        <v>28034.9261</v>
       </c>
       <c r="G130" t="n">
-        <v>29.354</v>
+        <v>29.36899999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>28.72</v>
+        <v>28.71</v>
       </c>
       <c r="C131" t="n">
-        <v>29.09</v>
+        <v>28.71</v>
       </c>
       <c r="D131" t="n">
-        <v>29.09</v>
+        <v>28.71</v>
       </c>
       <c r="E131" t="n">
-        <v>28.72</v>
+        <v>28.71</v>
       </c>
       <c r="F131" t="n">
-        <v>743.6</v>
+        <v>528.2722</v>
       </c>
       <c r="G131" t="n">
-        <v>29.34383333333333</v>
+        <v>29.354</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4986,19 +4986,19 @@
         <v>28.72</v>
       </c>
       <c r="C132" t="n">
-        <v>28.71</v>
+        <v>29.09</v>
       </c>
       <c r="D132" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="E132" t="n">
         <v>28.72</v>
       </c>
-      <c r="E132" t="n">
-        <v>28.71</v>
-      </c>
       <c r="F132" t="n">
-        <v>5133.6285</v>
+        <v>743.6</v>
       </c>
       <c r="G132" t="n">
-        <v>29.32683333333333</v>
+        <v>29.34383333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>28.8</v>
+        <v>28.72</v>
       </c>
       <c r="C133" t="n">
-        <v>28.7</v>
+        <v>28.71</v>
       </c>
       <c r="D133" t="n">
-        <v>28.8</v>
+        <v>28.72</v>
       </c>
       <c r="E133" t="n">
-        <v>28.7</v>
+        <v>28.71</v>
       </c>
       <c r="F133" t="n">
-        <v>24911.2436</v>
+        <v>5133.6285</v>
       </c>
       <c r="G133" t="n">
-        <v>29.30966666666666</v>
+        <v>29.32683333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="C134" t="n">
-        <v>28.34</v>
+        <v>28.7</v>
       </c>
       <c r="D134" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="E134" t="n">
-        <v>28.34</v>
+        <v>28.7</v>
       </c>
       <c r="F134" t="n">
-        <v>122442.3474</v>
+        <v>24911.2436</v>
       </c>
       <c r="G134" t="n">
-        <v>29.28699999999999</v>
+        <v>29.30966666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C135" t="n">
-        <v>28.4</v>
+        <v>28.34</v>
       </c>
       <c r="D135" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="E135" t="n">
-        <v>28.4</v>
+        <v>28.34</v>
       </c>
       <c r="F135" t="n">
-        <v>3405.648</v>
+        <v>122442.3474</v>
       </c>
       <c r="G135" t="n">
-        <v>29.26533333333333</v>
+        <v>29.28699999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5135,10 @@
         <v>28.4</v>
       </c>
       <c r="F136" t="n">
-        <v>1524.8094</v>
+        <v>3405.648</v>
       </c>
       <c r="G136" t="n">
-        <v>29.24299999999999</v>
+        <v>29.26533333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5161,19 +5161,19 @@
         <v>28.4</v>
       </c>
       <c r="C137" t="n">
-        <v>28.34</v>
+        <v>28.4</v>
       </c>
       <c r="D137" t="n">
         <v>28.4</v>
       </c>
       <c r="E137" t="n">
-        <v>28.34</v>
+        <v>28.4</v>
       </c>
       <c r="F137" t="n">
-        <v>50911.989</v>
+        <v>1524.8094</v>
       </c>
       <c r="G137" t="n">
-        <v>29.21983333333333</v>
+        <v>29.24299999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>28.33</v>
+        <v>28.4</v>
       </c>
       <c r="C138" t="n">
-        <v>28.33</v>
+        <v>28.34</v>
       </c>
       <c r="D138" t="n">
-        <v>28.33</v>
+        <v>28.4</v>
       </c>
       <c r="E138" t="n">
-        <v>28.33</v>
+        <v>28.34</v>
       </c>
       <c r="F138" t="n">
-        <v>18</v>
+        <v>50911.989</v>
       </c>
       <c r="G138" t="n">
-        <v>29.19649999999999</v>
+        <v>29.21983333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5231,19 +5231,19 @@
         <v>28.33</v>
       </c>
       <c r="C139" t="n">
-        <v>28.2</v>
+        <v>28.33</v>
       </c>
       <c r="D139" t="n">
         <v>28.33</v>
       </c>
       <c r="E139" t="n">
-        <v>28.2</v>
+        <v>28.33</v>
       </c>
       <c r="F139" t="n">
-        <v>13380.519</v>
+        <v>18</v>
       </c>
       <c r="G139" t="n">
-        <v>29.17483333333332</v>
+        <v>29.19649999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>28.31</v>
+        <v>28.33</v>
       </c>
       <c r="C140" t="n">
-        <v>28.74</v>
+        <v>28.2</v>
       </c>
       <c r="D140" t="n">
-        <v>28.74</v>
+        <v>28.33</v>
       </c>
       <c r="E140" t="n">
-        <v>28.31</v>
+        <v>28.2</v>
       </c>
       <c r="F140" t="n">
-        <v>785.2</v>
+        <v>13380.519</v>
       </c>
       <c r="G140" t="n">
-        <v>29.16366666666666</v>
+        <v>29.17483333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="C141" t="n">
         <v>28.74</v>
-      </c>
-      <c r="C141" t="n">
-        <v>28.7</v>
       </c>
       <c r="D141" t="n">
         <v>28.74</v>
       </c>
       <c r="E141" t="n">
-        <v>28.7</v>
+        <v>28.31</v>
       </c>
       <c r="F141" t="n">
-        <v>4363.2472</v>
+        <v>785.2</v>
       </c>
       <c r="G141" t="n">
-        <v>29.15033333333333</v>
+        <v>29.16366666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>28.7</v>
+        <v>28.74</v>
       </c>
       <c r="C142" t="n">
         <v>28.7</v>
       </c>
       <c r="D142" t="n">
-        <v>28.7</v>
+        <v>28.74</v>
       </c>
       <c r="E142" t="n">
         <v>28.7</v>
       </c>
       <c r="F142" t="n">
-        <v>1053.304</v>
+        <v>4363.2472</v>
       </c>
       <c r="G142" t="n">
-        <v>29.13533333333333</v>
+        <v>29.15033333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C143" t="n">
-        <v>28.36</v>
+        <v>28.7</v>
       </c>
       <c r="D143" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="E143" t="n">
-        <v>28.36</v>
+        <v>28.7</v>
       </c>
       <c r="F143" t="n">
-        <v>148810.5697</v>
+        <v>1053.304</v>
       </c>
       <c r="G143" t="n">
-        <v>29.11466666666666</v>
+        <v>29.13533333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C144" t="n">
         <v>28.36</v>
       </c>
-      <c r="C144" t="n">
-        <v>28.7</v>
-      </c>
       <c r="D144" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E144" t="n">
         <v>28.36</v>
       </c>
       <c r="F144" t="n">
-        <v>812.5</v>
+        <v>148810.5697</v>
       </c>
       <c r="G144" t="n">
-        <v>29.10133333333333</v>
+        <v>29.11466666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>28.69</v>
+        <v>28.36</v>
       </c>
       <c r="C145" t="n">
-        <v>28.74</v>
+        <v>28.7</v>
       </c>
       <c r="D145" t="n">
-        <v>28.74</v>
+        <v>28.7</v>
       </c>
       <c r="E145" t="n">
-        <v>28.69</v>
+        <v>28.36</v>
       </c>
       <c r="F145" t="n">
-        <v>7750.8596</v>
+        <v>812.5</v>
       </c>
       <c r="G145" t="n">
-        <v>29.08866666666666</v>
+        <v>29.10133333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>28.74</v>
+        <v>28.69</v>
       </c>
       <c r="C146" t="n">
         <v>28.74</v>
@@ -5482,13 +5482,13 @@
         <v>28.74</v>
       </c>
       <c r="E146" t="n">
-        <v>28.74</v>
+        <v>28.69</v>
       </c>
       <c r="F146" t="n">
-        <v>708.6559</v>
+        <v>7750.8596</v>
       </c>
       <c r="G146" t="n">
-        <v>29.07433333333333</v>
+        <v>29.08866666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>28.8</v>
+        <v>28.74</v>
       </c>
       <c r="C147" t="n">
-        <v>28.8</v>
+        <v>28.74</v>
       </c>
       <c r="D147" t="n">
-        <v>28.8</v>
+        <v>28.74</v>
       </c>
       <c r="E147" t="n">
-        <v>28.8</v>
+        <v>28.74</v>
       </c>
       <c r="F147" t="n">
-        <v>15492.98</v>
+        <v>708.6559</v>
       </c>
       <c r="G147" t="n">
-        <v>29.061</v>
+        <v>29.07433333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5546,19 +5546,19 @@
         <v>28.8</v>
       </c>
       <c r="C148" t="n">
-        <v>28.94</v>
+        <v>28.8</v>
       </c>
       <c r="D148" t="n">
-        <v>28.94</v>
+        <v>28.8</v>
       </c>
       <c r="E148" t="n">
         <v>28.8</v>
       </c>
       <c r="F148" t="n">
-        <v>47274.7082</v>
+        <v>15492.98</v>
       </c>
       <c r="G148" t="n">
-        <v>29.04783333333333</v>
+        <v>29.061</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>28.97</v>
+        <v>28.8</v>
       </c>
       <c r="C149" t="n">
-        <v>29.17</v>
+        <v>28.94</v>
       </c>
       <c r="D149" t="n">
-        <v>29.17</v>
+        <v>28.94</v>
       </c>
       <c r="E149" t="n">
-        <v>28.97</v>
+        <v>28.8</v>
       </c>
       <c r="F149" t="n">
-        <v>817.7</v>
+        <v>47274.7082</v>
       </c>
       <c r="G149" t="n">
-        <v>29.04183333333333</v>
+        <v>29.04783333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5616,19 +5616,19 @@
         <v>28.97</v>
       </c>
       <c r="C150" t="n">
-        <v>28.94</v>
+        <v>29.17</v>
       </c>
       <c r="D150" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="E150" t="n">
         <v>28.97</v>
       </c>
-      <c r="E150" t="n">
-        <v>28.94</v>
-      </c>
       <c r="F150" t="n">
-        <v>59526.6194</v>
+        <v>817.7</v>
       </c>
       <c r="G150" t="n">
-        <v>29.032</v>
+        <v>29.04183333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>28.94</v>
+        <v>28.97</v>
       </c>
       <c r="C151" t="n">
         <v>28.94</v>
       </c>
       <c r="D151" t="n">
-        <v>28.94</v>
+        <v>28.97</v>
       </c>
       <c r="E151" t="n">
         <v>28.94</v>
       </c>
       <c r="F151" t="n">
-        <v>17700</v>
+        <v>59526.6194</v>
       </c>
       <c r="G151" t="n">
-        <v>29.0185</v>
+        <v>29.032</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>28.94</v>
       </c>
       <c r="F152" t="n">
-        <v>29.4266</v>
+        <v>17700</v>
       </c>
       <c r="G152" t="n">
-        <v>29.005</v>
+        <v>29.0185</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>29.1</v>
+        <v>28.94</v>
       </c>
       <c r="C153" t="n">
-        <v>29</v>
+        <v>28.94</v>
       </c>
       <c r="D153" t="n">
-        <v>29.1</v>
+        <v>28.94</v>
       </c>
       <c r="E153" t="n">
-        <v>29</v>
+        <v>28.94</v>
       </c>
       <c r="F153" t="n">
-        <v>7559.1596</v>
+        <v>29.4266</v>
       </c>
       <c r="G153" t="n">
-        <v>28.9925</v>
+        <v>29.005</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5756,19 +5756,19 @@
         <v>29.1</v>
       </c>
       <c r="C154" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D154" t="n">
         <v>29.1</v>
       </c>
       <c r="E154" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F154" t="n">
-        <v>18</v>
+        <v>7559.1596</v>
       </c>
       <c r="G154" t="n">
-        <v>28.98166666666667</v>
+        <v>28.9925</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,7 +5788,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>28.94</v>
+        <v>29.1</v>
       </c>
       <c r="C155" t="n">
         <v>29.1</v>
@@ -5797,13 +5797,13 @@
         <v>29.1</v>
       </c>
       <c r="E155" t="n">
-        <v>28.94</v>
+        <v>29.1</v>
       </c>
       <c r="F155" t="n">
-        <v>816.4</v>
+        <v>18</v>
       </c>
       <c r="G155" t="n">
-        <v>28.971</v>
+        <v>28.98166666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5826,19 +5826,19 @@
         <v>28.94</v>
       </c>
       <c r="C156" t="n">
-        <v>28.94</v>
+        <v>29.1</v>
       </c>
       <c r="D156" t="n">
-        <v>28.94</v>
+        <v>29.1</v>
       </c>
       <c r="E156" t="n">
         <v>28.94</v>
       </c>
       <c r="F156" t="n">
-        <v>5951</v>
+        <v>816.4</v>
       </c>
       <c r="G156" t="n">
-        <v>28.95766666666667</v>
+        <v>28.971</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5870,10 +5870,10 @@
         <v>28.94</v>
       </c>
       <c r="F157" t="n">
-        <v>767</v>
+        <v>5951</v>
       </c>
       <c r="G157" t="n">
-        <v>28.94833333333333</v>
+        <v>28.95766666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5896,19 +5896,19 @@
         <v>28.94</v>
       </c>
       <c r="C158" t="n">
-        <v>28.6</v>
+        <v>28.94</v>
       </c>
       <c r="D158" t="n">
         <v>28.94</v>
       </c>
       <c r="E158" t="n">
-        <v>28.6</v>
+        <v>28.94</v>
       </c>
       <c r="F158" t="n">
-        <v>3629.3865</v>
+        <v>767</v>
       </c>
       <c r="G158" t="n">
-        <v>28.935</v>
+        <v>28.94833333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="C159" t="n">
         <v>28.6</v>
       </c>
-      <c r="C159" t="n">
-        <v>29.1</v>
-      </c>
       <c r="D159" t="n">
-        <v>29.1</v>
+        <v>28.94</v>
       </c>
       <c r="E159" t="n">
         <v>28.6</v>
       </c>
       <c r="F159" t="n">
-        <v>846.3</v>
+        <v>3629.3865</v>
       </c>
       <c r="G159" t="n">
-        <v>28.92916666666666</v>
+        <v>28.935</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>29.07</v>
+        <v>28.6</v>
       </c>
       <c r="C160" t="n">
-        <v>29.07</v>
+        <v>29.1</v>
       </c>
       <c r="D160" t="n">
-        <v>29.07</v>
+        <v>29.1</v>
       </c>
       <c r="E160" t="n">
-        <v>29.07</v>
+        <v>28.6</v>
       </c>
       <c r="F160" t="n">
-        <v>35</v>
+        <v>846.3</v>
       </c>
       <c r="G160" t="n">
-        <v>28.92533333333333</v>
+        <v>28.92916666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>28.6</v>
+        <v>29.07</v>
       </c>
       <c r="C161" t="n">
-        <v>29.1</v>
+        <v>29.07</v>
       </c>
       <c r="D161" t="n">
-        <v>29.1</v>
+        <v>29.07</v>
       </c>
       <c r="E161" t="n">
-        <v>28.6</v>
+        <v>29.07</v>
       </c>
       <c r="F161" t="n">
-        <v>808.6</v>
+        <v>35</v>
       </c>
       <c r="G161" t="n">
-        <v>28.91949999999999</v>
+        <v>28.92533333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="C162" t="n">
         <v>29.1</v>
@@ -6042,13 +6042,13 @@
         <v>29.1</v>
       </c>
       <c r="E162" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="F162" t="n">
-        <v>4879.5602</v>
+        <v>808.6</v>
       </c>
       <c r="G162" t="n">
-        <v>28.91366666666666</v>
+        <v>28.91949999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>28.61</v>
+        <v>29.1</v>
       </c>
       <c r="C163" t="n">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="D163" t="n">
-        <v>28.61</v>
+        <v>29.1</v>
       </c>
       <c r="E163" t="n">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="F163" t="n">
-        <v>41236.0967</v>
+        <v>4879.5602</v>
       </c>
       <c r="G163" t="n">
-        <v>28.90433333333332</v>
+        <v>28.91366666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>28.8</v>
+        <v>28.61</v>
       </c>
       <c r="C164" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="D164" t="n">
-        <v>28.8</v>
+        <v>28.61</v>
       </c>
       <c r="E164" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="F164" t="n">
-        <v>100</v>
+        <v>41236.0967</v>
       </c>
       <c r="G164" t="n">
-        <v>28.88899999999999</v>
+        <v>28.90433333333332</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6141,19 +6141,19 @@
         <v>28.8</v>
       </c>
       <c r="C165" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="D165" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E165" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F165" t="n">
-        <v>2796.9</v>
+        <v>100</v>
       </c>
       <c r="G165" t="n">
-        <v>28.88399999999999</v>
+        <v>28.88899999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>28.71</v>
+        <v>28.8</v>
       </c>
       <c r="C166" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="D166" t="n">
-        <v>28.71</v>
+        <v>29</v>
       </c>
       <c r="E166" t="n">
         <v>28.7</v>
       </c>
       <c r="F166" t="n">
-        <v>35630.2387</v>
+        <v>2796.9</v>
       </c>
       <c r="G166" t="n">
-        <v>28.87616666666666</v>
+        <v>28.88399999999999</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>28.6</v>
+        <v>28.71</v>
       </c>
       <c r="C167" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D167" t="n">
-        <v>28.6</v>
+        <v>28.71</v>
       </c>
       <c r="E167" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F167" t="n">
-        <v>82135.158</v>
+        <v>35630.2387</v>
       </c>
       <c r="G167" t="n">
-        <v>28.86116666666665</v>
+        <v>28.87616666666666</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="C168" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="D168" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="E168" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="F168" t="n">
-        <v>5319.5166</v>
+        <v>82135.158</v>
       </c>
       <c r="G168" t="n">
-        <v>28.84783333333332</v>
+        <v>28.86116666666665</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>28.88</v>
+        <v>28.8</v>
       </c>
       <c r="C169" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D169" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E169" t="n">
-        <v>28.88</v>
+        <v>28.8</v>
       </c>
       <c r="F169" t="n">
-        <v>50000</v>
+        <v>5319.5166</v>
       </c>
       <c r="G169" t="n">
-        <v>28.83599999999999</v>
+        <v>28.84783333333332</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>28.7</v>
+        <v>28.88</v>
       </c>
       <c r="C170" t="n">
         <v>28.9</v>
@@ -6322,13 +6322,13 @@
         <v>28.9</v>
       </c>
       <c r="E170" t="n">
-        <v>28.7</v>
+        <v>28.88</v>
       </c>
       <c r="F170" t="n">
-        <v>850.2</v>
+        <v>50000</v>
       </c>
       <c r="G170" t="n">
-        <v>28.82416666666666</v>
+        <v>28.83599999999999</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,7 +6348,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C171" t="n">
         <v>28.9</v>
@@ -6357,13 +6357,13 @@
         <v>28.9</v>
       </c>
       <c r="E171" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F171" t="n">
-        <v>7153.5099</v>
+        <v>850.2</v>
       </c>
       <c r="G171" t="n">
-        <v>28.81233333333333</v>
+        <v>28.82416666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>28.98</v>
+        <v>28.9</v>
       </c>
       <c r="C172" t="n">
-        <v>28.98</v>
+        <v>28.9</v>
       </c>
       <c r="D172" t="n">
-        <v>28.98</v>
+        <v>28.9</v>
       </c>
       <c r="E172" t="n">
-        <v>28.98</v>
+        <v>28.9</v>
       </c>
       <c r="F172" t="n">
-        <v>4000</v>
+        <v>7153.5099</v>
       </c>
       <c r="G172" t="n">
-        <v>28.802</v>
+        <v>28.81233333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>28.99</v>
+        <v>28.98</v>
       </c>
       <c r="C173" t="n">
-        <v>28.99</v>
+        <v>28.98</v>
       </c>
       <c r="D173" t="n">
-        <v>28.99</v>
+        <v>28.98</v>
       </c>
       <c r="E173" t="n">
-        <v>28.99</v>
+        <v>28.98</v>
       </c>
       <c r="F173" t="n">
-        <v>18</v>
+        <v>4000</v>
       </c>
       <c r="G173" t="n">
-        <v>28.7935</v>
+        <v>28.802</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6465,10 +6465,10 @@
         <v>28.99</v>
       </c>
       <c r="F174" t="n">
-        <v>6658.2689</v>
+        <v>18</v>
       </c>
       <c r="G174" t="n">
-        <v>28.78833333333333</v>
+        <v>28.7935</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6500,10 +6500,10 @@
         <v>28.99</v>
       </c>
       <c r="F175" t="n">
-        <v>19991.5144</v>
+        <v>6658.2689</v>
       </c>
       <c r="G175" t="n">
-        <v>28.785</v>
+        <v>28.78833333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>28.98</v>
+        <v>28.99</v>
       </c>
       <c r="C176" t="n">
-        <v>28.98</v>
+        <v>28.99</v>
       </c>
       <c r="D176" t="n">
-        <v>28.98</v>
+        <v>28.99</v>
       </c>
       <c r="E176" t="n">
-        <v>28.98</v>
+        <v>28.99</v>
       </c>
       <c r="F176" t="n">
-        <v>155</v>
+        <v>19991.5144</v>
       </c>
       <c r="G176" t="n">
-        <v>28.778</v>
+        <v>28.785</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6561,19 +6561,19 @@
         <v>28.98</v>
       </c>
       <c r="C177" t="n">
-        <v>28.99</v>
+        <v>28.98</v>
       </c>
       <c r="D177" t="n">
-        <v>28.99</v>
+        <v>28.98</v>
       </c>
       <c r="E177" t="n">
-        <v>28.8</v>
+        <v>28.98</v>
       </c>
       <c r="F177" t="n">
-        <v>782.6</v>
+        <v>155</v>
       </c>
       <c r="G177" t="n">
-        <v>28.7745</v>
+        <v>28.778</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>28.7</v>
+        <v>28.98</v>
       </c>
       <c r="C178" t="n">
-        <v>28.7</v>
+        <v>28.99</v>
       </c>
       <c r="D178" t="n">
-        <v>28.7</v>
+        <v>28.99</v>
       </c>
       <c r="E178" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F178" t="n">
-        <v>16102.4242</v>
+        <v>782.6</v>
       </c>
       <c r="G178" t="n">
-        <v>28.76616666666666</v>
+        <v>28.7745</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C179" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="D179" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="E179" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F179" t="n">
-        <v>18</v>
+        <v>16102.4242</v>
       </c>
       <c r="G179" t="n">
-        <v>28.76866666666666</v>
+        <v>28.76616666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6666,19 +6666,19 @@
         <v>28.9</v>
       </c>
       <c r="C180" t="n">
-        <v>28.71</v>
+        <v>28.9</v>
       </c>
       <c r="D180" t="n">
         <v>28.9</v>
       </c>
       <c r="E180" t="n">
-        <v>28.71</v>
+        <v>28.9</v>
       </c>
       <c r="F180" t="n">
-        <v>33431.4441</v>
+        <v>18</v>
       </c>
       <c r="G180" t="n">
-        <v>28.77216666666667</v>
+        <v>28.76866666666666</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>28.71</v>
+        <v>28.9</v>
       </c>
       <c r="C181" t="n">
         <v>28.71</v>
       </c>
       <c r="D181" t="n">
-        <v>28.71</v>
+        <v>28.9</v>
       </c>
       <c r="E181" t="n">
         <v>28.71</v>
       </c>
       <c r="F181" t="n">
-        <v>3177.6172</v>
+        <v>33431.4441</v>
       </c>
       <c r="G181" t="n">
-        <v>28.77566666666667</v>
+        <v>28.77216666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>28.8</v>
+        <v>28.71</v>
       </c>
       <c r="C182" t="n">
-        <v>28.8</v>
+        <v>28.71</v>
       </c>
       <c r="D182" t="n">
-        <v>28.8</v>
+        <v>28.71</v>
       </c>
       <c r="E182" t="n">
-        <v>28.8</v>
+        <v>28.71</v>
       </c>
       <c r="F182" t="n">
-        <v>21430.8945</v>
+        <v>3177.6172</v>
       </c>
       <c r="G182" t="n">
-        <v>28.77733333333333</v>
+        <v>28.77566666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C183" t="n">
         <v>28.8</v>
@@ -6777,13 +6777,13 @@
         <v>28.8</v>
       </c>
       <c r="E183" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F183" t="n">
-        <v>777.4</v>
+        <v>21430.8945</v>
       </c>
       <c r="G183" t="n">
-        <v>28.779</v>
+        <v>28.77733333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,10 +6815,10 @@
         <v>28.7</v>
       </c>
       <c r="F184" t="n">
-        <v>4469.6801</v>
+        <v>777.4</v>
       </c>
       <c r="G184" t="n">
-        <v>28.784</v>
+        <v>28.779</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,7 +6838,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="C185" t="n">
         <v>28.8</v>
@@ -6847,13 +6847,13 @@
         <v>28.8</v>
       </c>
       <c r="E185" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F185" t="n">
-        <v>7764.0541</v>
+        <v>4469.6801</v>
       </c>
       <c r="G185" t="n">
-        <v>28.79133333333333</v>
+        <v>28.784</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C186" t="n">
         <v>28.8</v>
@@ -6882,13 +6882,13 @@
         <v>28.8</v>
       </c>
       <c r="E186" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F186" t="n">
-        <v>820.3</v>
+        <v>7764.0541</v>
       </c>
       <c r="G186" t="n">
-        <v>28.79866666666667</v>
+        <v>28.79133333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,7 +6908,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="C187" t="n">
         <v>28.8</v>
@@ -6917,13 +6917,13 @@
         <v>28.8</v>
       </c>
       <c r="E187" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F187" t="n">
-        <v>59.89583333333334</v>
+        <v>820.3</v>
       </c>
       <c r="G187" t="n">
-        <v>28.80033333333333</v>
+        <v>28.79866666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>28.71</v>
+        <v>28.8</v>
       </c>
       <c r="C188" t="n">
-        <v>28.51</v>
+        <v>28.8</v>
       </c>
       <c r="D188" t="n">
         <v>28.8</v>
       </c>
       <c r="E188" t="n">
-        <v>28.51</v>
+        <v>28.8</v>
       </c>
       <c r="F188" t="n">
-        <v>67227.565</v>
+        <v>59.89583333333334</v>
       </c>
       <c r="G188" t="n">
-        <v>28.79716666666666</v>
+        <v>28.80033333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="C189" t="n">
         <v>28.51</v>
       </c>
-      <c r="C189" t="n">
-        <v>28.5</v>
-      </c>
       <c r="D189" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E189" t="n">
         <v>28.51</v>
       </c>
-      <c r="E189" t="n">
-        <v>28.5</v>
-      </c>
       <c r="F189" t="n">
-        <v>32181.1077</v>
+        <v>67227.565</v>
       </c>
       <c r="G189" t="n">
-        <v>28.79383333333333</v>
+        <v>28.79716666666666</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>28.42</v>
+        <v>28.51</v>
       </c>
       <c r="C190" t="n">
         <v>28.5</v>
       </c>
       <c r="D190" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="E190" t="n">
         <v>28.5</v>
       </c>
-      <c r="E190" t="n">
-        <v>28.42</v>
-      </c>
       <c r="F190" t="n">
-        <v>854.1</v>
+        <v>32181.1077</v>
       </c>
       <c r="G190" t="n">
-        <v>28.79033333333333</v>
+        <v>28.79383333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7051,19 +7051,19 @@
         <v>28.42</v>
       </c>
       <c r="C191" t="n">
-        <v>28.42</v>
+        <v>28.5</v>
       </c>
       <c r="D191" t="n">
-        <v>28.42</v>
+        <v>28.5</v>
       </c>
       <c r="E191" t="n">
         <v>28.42</v>
       </c>
       <c r="F191" t="n">
-        <v>10336.1537</v>
+        <v>854.1</v>
       </c>
       <c r="G191" t="n">
-        <v>28.77916666666666</v>
+        <v>28.79033333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>28.36</v>
+        <v>28.42</v>
       </c>
       <c r="C192" t="n">
-        <v>28.36</v>
+        <v>28.42</v>
       </c>
       <c r="D192" t="n">
-        <v>28.36</v>
+        <v>28.42</v>
       </c>
       <c r="E192" t="n">
-        <v>28.36</v>
+        <v>28.42</v>
       </c>
       <c r="F192" t="n">
-        <v>501.4505</v>
+        <v>10336.1537</v>
       </c>
       <c r="G192" t="n">
-        <v>28.77333333333333</v>
+        <v>28.77916666666666</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>28.37</v>
+        <v>28.36</v>
       </c>
       <c r="C193" t="n">
-        <v>28.31</v>
+        <v>28.36</v>
       </c>
       <c r="D193" t="n">
-        <v>28.37</v>
+        <v>28.36</v>
       </c>
       <c r="E193" t="n">
-        <v>28.31</v>
+        <v>28.36</v>
       </c>
       <c r="F193" t="n">
-        <v>27187.8473</v>
+        <v>501.4505</v>
       </c>
       <c r="G193" t="n">
-        <v>28.76683333333333</v>
+        <v>28.77333333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>28.4</v>
+        <v>28.37</v>
       </c>
       <c r="C194" t="n">
-        <v>28.74</v>
+        <v>28.31</v>
       </c>
       <c r="D194" t="n">
-        <v>28.74</v>
+        <v>28.37</v>
       </c>
       <c r="E194" t="n">
-        <v>28.4</v>
+        <v>28.31</v>
       </c>
       <c r="F194" t="n">
-        <v>877.5</v>
+        <v>27187.8473</v>
       </c>
       <c r="G194" t="n">
-        <v>28.77349999999999</v>
+        <v>28.76683333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>28.74</v>
+        <v>28.4</v>
       </c>
       <c r="C195" t="n">
         <v>28.74</v>
@@ -7197,13 +7197,13 @@
         <v>28.74</v>
       </c>
       <c r="E195" t="n">
-        <v>28.74</v>
+        <v>28.4</v>
       </c>
       <c r="F195" t="n">
-        <v>20</v>
+        <v>877.5</v>
       </c>
       <c r="G195" t="n">
-        <v>28.77916666666666</v>
+        <v>28.77349999999999</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>28.5</v>
+        <v>28.74</v>
       </c>
       <c r="C196" t="n">
         <v>28.74</v>
@@ -7232,13 +7232,13 @@
         <v>28.74</v>
       </c>
       <c r="E196" t="n">
-        <v>28.5</v>
+        <v>28.74</v>
       </c>
       <c r="F196" t="n">
-        <v>865.8</v>
+        <v>20</v>
       </c>
       <c r="G196" t="n">
-        <v>28.78483333333332</v>
+        <v>28.77916666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>28.51</v>
+        <v>28.5</v>
       </c>
       <c r="C197" t="n">
-        <v>28.6</v>
+        <v>28.74</v>
       </c>
       <c r="D197" t="n">
-        <v>28.6</v>
+        <v>28.74</v>
       </c>
       <c r="E197" t="n">
-        <v>28.51</v>
+        <v>28.5</v>
       </c>
       <c r="F197" t="n">
-        <v>868.4</v>
+        <v>865.8</v>
       </c>
       <c r="G197" t="n">
-        <v>28.78916666666666</v>
+        <v>28.78483333333332</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7296,19 +7296,19 @@
         <v>28.51</v>
       </c>
       <c r="C198" t="n">
-        <v>28.51</v>
+        <v>28.6</v>
       </c>
       <c r="D198" t="n">
-        <v>28.51</v>
+        <v>28.6</v>
       </c>
       <c r="E198" t="n">
         <v>28.51</v>
       </c>
       <c r="F198" t="n">
-        <v>4363.2472</v>
+        <v>868.4</v>
       </c>
       <c r="G198" t="n">
-        <v>28.79216666666666</v>
+        <v>28.78916666666666</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7340,10 +7340,10 @@
         <v>28.51</v>
       </c>
       <c r="F199" t="n">
-        <v>17700</v>
+        <v>4363.2472</v>
       </c>
       <c r="G199" t="n">
-        <v>28.79733333333332</v>
+        <v>28.79216666666666</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,10 +7375,10 @@
         <v>28.51</v>
       </c>
       <c r="F200" t="n">
-        <v>7065.9811</v>
+        <v>17700</v>
       </c>
       <c r="G200" t="n">
-        <v>28.79349999999999</v>
+        <v>28.79733333333332</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7410,10 +7410,10 @@
         <v>28.51</v>
       </c>
       <c r="F201" t="n">
-        <v>4223.0339</v>
+        <v>7065.9811</v>
       </c>
       <c r="G201" t="n">
-        <v>28.79033333333332</v>
+        <v>28.79349999999999</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7436,28 +7436,32 @@
         <v>28.51</v>
       </c>
       <c r="C202" t="n">
-        <v>28.31</v>
+        <v>28.51</v>
       </c>
       <c r="D202" t="n">
         <v>28.51</v>
       </c>
       <c r="E202" t="n">
-        <v>28.31</v>
+        <v>28.51</v>
       </c>
       <c r="F202" t="n">
-        <v>40510.7644</v>
+        <v>4223.0339</v>
       </c>
       <c r="G202" t="n">
-        <v>28.78383333333332</v>
+        <v>28.79033333333332</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="K202" t="n">
+        <v>28.51</v>
+      </c>
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
@@ -7468,22 +7472,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>28.4</v>
+        <v>28.51</v>
       </c>
       <c r="C203" t="n">
-        <v>28.6</v>
+        <v>28.31</v>
       </c>
       <c r="D203" t="n">
-        <v>28.6</v>
+        <v>28.51</v>
       </c>
       <c r="E203" t="n">
-        <v>28.4</v>
+        <v>28.31</v>
       </c>
       <c r="F203" t="n">
-        <v>864.5</v>
+        <v>40510.7644</v>
       </c>
       <c r="G203" t="n">
-        <v>28.78783333333332</v>
+        <v>28.78383333333332</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7492,8 +7496,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7506,29 +7516,37 @@
         <v>28.4</v>
       </c>
       <c r="C204" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="D204" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="E204" t="n">
         <v>28.4</v>
       </c>
       <c r="F204" t="n">
-        <v>900</v>
+        <v>864.5</v>
       </c>
       <c r="G204" t="n">
-        <v>28.78283333333332</v>
+        <v>28.78783333333332</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="K204" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7550,10 +7568,10 @@
         <v>28.4</v>
       </c>
       <c r="F205" t="n">
-        <v>31.1</v>
+        <v>900</v>
       </c>
       <c r="G205" t="n">
-        <v>28.77716666666666</v>
+        <v>28.78283333333332</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7562,8 +7580,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7576,19 +7600,19 @@
         <v>28.4</v>
       </c>
       <c r="C206" t="n">
-        <v>28.35</v>
+        <v>28.4</v>
       </c>
       <c r="D206" t="n">
         <v>28.4</v>
       </c>
       <c r="E206" t="n">
-        <v>28.35</v>
+        <v>28.4</v>
       </c>
       <c r="F206" t="n">
-        <v>24338.6945</v>
+        <v>31.1</v>
       </c>
       <c r="G206" t="n">
-        <v>28.77066666666666</v>
+        <v>28.77716666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7597,8 +7621,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7608,36 +7638,38 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>28.36</v>
+        <v>28.4</v>
       </c>
       <c r="C207" t="n">
-        <v>28.5</v>
+        <v>28.35</v>
       </c>
       <c r="D207" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="E207" t="n">
-        <v>28.36</v>
+        <v>28.35</v>
       </c>
       <c r="F207" t="n">
-        <v>882.7</v>
+        <v>24338.6945</v>
       </c>
       <c r="G207" t="n">
-        <v>28.76566666666666</v>
+        <v>28.77066666666666</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>28.35</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>28.35</v>
-      </c>
-      <c r="L207" t="inlineStr"/>
+        <v>28.51</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7647,38 +7679,36 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="C208" t="n">
         <v>28.5</v>
-      </c>
-      <c r="C208" t="n">
-        <v>28.49</v>
       </c>
       <c r="D208" t="n">
         <v>28.5</v>
       </c>
       <c r="E208" t="n">
-        <v>28.49</v>
+        <v>28.36</v>
       </c>
       <c r="F208" t="n">
-        <v>8287.4946</v>
+        <v>882.7</v>
       </c>
       <c r="G208" t="n">
-        <v>28.75816666666666</v>
+        <v>28.76566666666666</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -7690,38 +7720,36 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>28.49</v>
+        <v>28.5</v>
       </c>
       <c r="C209" t="n">
         <v>28.49</v>
       </c>
       <c r="D209" t="n">
-        <v>28.49</v>
+        <v>28.5</v>
       </c>
       <c r="E209" t="n">
         <v>28.49</v>
       </c>
       <c r="F209" t="n">
-        <v>2961.8002</v>
+        <v>8287.4946</v>
       </c>
       <c r="G209" t="n">
-        <v>28.74683333333332</v>
+        <v>28.75816666666666</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>28.49</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -7733,38 +7761,36 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>28.5</v>
+        <v>28.49</v>
       </c>
       <c r="C210" t="n">
-        <v>28.31</v>
+        <v>28.49</v>
       </c>
       <c r="D210" t="n">
-        <v>28.5</v>
+        <v>28.49</v>
       </c>
       <c r="E210" t="n">
-        <v>28.31</v>
+        <v>28.49</v>
       </c>
       <c r="F210" t="n">
-        <v>234737.7471</v>
+        <v>2961.8002</v>
       </c>
       <c r="G210" t="n">
-        <v>28.73633333333332</v>
+        <v>28.74683333333332</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>28.49</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M210" t="n">
@@ -7776,22 +7802,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C211" t="n">
-        <v>28.7</v>
+        <v>28.31</v>
       </c>
       <c r="D211" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E211" t="n">
-        <v>28.4</v>
+        <v>28.31</v>
       </c>
       <c r="F211" t="n">
-        <v>785.2</v>
+        <v>234737.7471</v>
       </c>
       <c r="G211" t="n">
-        <v>28.73233333333332</v>
+        <v>28.73633333333332</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7801,7 +7827,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -7817,34 +7843,32 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>28.32</v>
+        <v>28.4</v>
       </c>
       <c r="C212" t="n">
-        <v>28.31</v>
+        <v>28.7</v>
       </c>
       <c r="D212" t="n">
-        <v>28.32</v>
+        <v>28.7</v>
       </c>
       <c r="E212" t="n">
-        <v>28.31</v>
+        <v>28.4</v>
       </c>
       <c r="F212" t="n">
-        <v>88998.4486</v>
+        <v>785.2</v>
       </c>
       <c r="G212" t="n">
-        <v>28.72183333333332</v>
+        <v>28.73233333333332</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -7860,22 +7884,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="C213" t="n">
         <v>28.31</v>
       </c>
-      <c r="C213" t="n">
-        <v>28.5</v>
-      </c>
       <c r="D213" t="n">
-        <v>28.5</v>
+        <v>28.32</v>
       </c>
       <c r="E213" t="n">
         <v>28.31</v>
       </c>
       <c r="F213" t="n">
-        <v>821.6</v>
+        <v>88998.4486</v>
       </c>
       <c r="G213" t="n">
-        <v>28.71349999999999</v>
+        <v>28.72183333333332</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7885,7 +7909,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -7913,10 +7937,10 @@
         <v>28.31</v>
       </c>
       <c r="F214" t="n">
-        <v>837.2</v>
+        <v>821.6</v>
       </c>
       <c r="G214" t="n">
-        <v>28.70349999999998</v>
+        <v>28.71349999999999</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7926,7 +7950,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -7942,7 +7966,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>28.5</v>
+        <v>28.31</v>
       </c>
       <c r="C215" t="n">
         <v>28.5</v>
@@ -7951,13 +7975,13 @@
         <v>28.5</v>
       </c>
       <c r="E215" t="n">
-        <v>28.5</v>
+        <v>28.31</v>
       </c>
       <c r="F215" t="n">
-        <v>3267.3314</v>
+        <v>837.2</v>
       </c>
       <c r="G215" t="n">
-        <v>28.69349999999999</v>
+        <v>28.70349999999998</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7967,7 +7991,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -7983,22 +8007,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C216" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D216" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E216" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F216" t="n">
-        <v>42308.8387</v>
+        <v>3267.3314</v>
       </c>
       <c r="G216" t="n">
-        <v>28.68783333333332</v>
+        <v>28.69349999999999</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8008,7 +8032,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8024,22 +8048,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="C217" t="n">
-        <v>28.69</v>
+        <v>28.6</v>
       </c>
       <c r="D217" t="n">
-        <v>28.69</v>
+        <v>28.6</v>
       </c>
       <c r="E217" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="F217" t="n">
-        <v>855.4</v>
+        <v>42308.8387</v>
       </c>
       <c r="G217" t="n">
-        <v>28.68366666666665</v>
+        <v>28.68783333333332</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8049,7 +8073,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8065,7 +8089,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="C218" t="n">
         <v>28.69</v>
@@ -8074,13 +8098,13 @@
         <v>28.69</v>
       </c>
       <c r="E218" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="F218" t="n">
-        <v>6805.8654</v>
+        <v>855.4</v>
       </c>
       <c r="G218" t="n">
-        <v>28.68516666666665</v>
+        <v>28.68366666666665</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8090,7 +8114,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8106,22 +8130,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C219" t="n">
-        <v>28.4</v>
+        <v>28.69</v>
       </c>
       <c r="D219" t="n">
-        <v>28.5</v>
+        <v>28.69</v>
       </c>
       <c r="E219" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="F219" t="n">
-        <v>23127.4982</v>
+        <v>6805.8654</v>
       </c>
       <c r="G219" t="n">
-        <v>28.67349999999999</v>
+        <v>28.68516666666665</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8131,7 +8155,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8147,22 +8171,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>28.32</v>
+        <v>28.5</v>
       </c>
       <c r="C220" t="n">
         <v>28.4</v>
       </c>
       <c r="D220" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E220" t="n">
         <v>28.4</v>
       </c>
-      <c r="E220" t="n">
-        <v>28.32</v>
-      </c>
       <c r="F220" t="n">
-        <v>837.2</v>
+        <v>23127.4982</v>
       </c>
       <c r="G220" t="n">
-        <v>28.66233333333333</v>
+        <v>28.67349999999999</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8172,7 +8196,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8191,19 +8215,19 @@
         <v>28.32</v>
       </c>
       <c r="C221" t="n">
-        <v>28.31</v>
+        <v>28.4</v>
       </c>
       <c r="D221" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E221" t="n">
         <v>28.32</v>
       </c>
-      <c r="E221" t="n">
-        <v>28.31</v>
-      </c>
       <c r="F221" t="n">
-        <v>31872.8757</v>
+        <v>837.2</v>
       </c>
       <c r="G221" t="n">
-        <v>28.64916666666666</v>
+        <v>28.66233333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8213,7 +8237,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8229,22 +8253,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>28.4</v>
+        <v>28.32</v>
       </c>
       <c r="C222" t="n">
-        <v>28.4</v>
+        <v>28.31</v>
       </c>
       <c r="D222" t="n">
-        <v>28.4</v>
+        <v>28.32</v>
       </c>
       <c r="E222" t="n">
-        <v>28.4</v>
+        <v>28.31</v>
       </c>
       <c r="F222" t="n">
-        <v>9602.873299999999</v>
+        <v>31872.8757</v>
       </c>
       <c r="G222" t="n">
-        <v>28.6375</v>
+        <v>28.64916666666666</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8254,7 +8278,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8270,22 +8294,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>28.31</v>
+        <v>28.4</v>
       </c>
       <c r="C223" t="n">
-        <v>28.31</v>
+        <v>28.4</v>
       </c>
       <c r="D223" t="n">
-        <v>28.31</v>
+        <v>28.4</v>
       </c>
       <c r="E223" t="n">
-        <v>28.31</v>
+        <v>28.4</v>
       </c>
       <c r="F223" t="n">
-        <v>22899.304</v>
+        <v>9602.873299999999</v>
       </c>
       <c r="G223" t="n">
-        <v>28.63266666666666</v>
+        <v>28.6375</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8295,7 +8319,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8311,22 +8335,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>28.5</v>
+        <v>28.31</v>
       </c>
       <c r="C224" t="n">
-        <v>28.5</v>
+        <v>28.31</v>
       </c>
       <c r="D224" t="n">
-        <v>28.5</v>
+        <v>28.31</v>
       </c>
       <c r="E224" t="n">
-        <v>28.5</v>
+        <v>28.31</v>
       </c>
       <c r="F224" t="n">
-        <v>6518.987</v>
+        <v>22899.304</v>
       </c>
       <c r="G224" t="n">
-        <v>28.62766666666666</v>
+        <v>28.63266666666666</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8336,7 +8360,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8352,22 +8376,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>28.31</v>
+        <v>28.5</v>
       </c>
       <c r="C225" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D225" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E225" t="n">
-        <v>28.31</v>
+        <v>28.5</v>
       </c>
       <c r="F225" t="n">
-        <v>773.5</v>
+        <v>6518.987</v>
       </c>
       <c r="G225" t="n">
-        <v>28.621</v>
+        <v>28.62766666666666</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8377,7 +8401,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8393,7 +8417,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>28.6</v>
+        <v>28.31</v>
       </c>
       <c r="C226" t="n">
         <v>28.6</v>
@@ -8402,13 +8426,13 @@
         <v>28.6</v>
       </c>
       <c r="E226" t="n">
-        <v>28.6</v>
+        <v>28.31</v>
       </c>
       <c r="F226" t="n">
-        <v>17112.3517</v>
+        <v>773.5</v>
       </c>
       <c r="G226" t="n">
-        <v>28.61933333333333</v>
+        <v>28.621</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8418,7 +8442,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8434,22 +8458,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="C227" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="D227" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="E227" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="F227" t="n">
-        <v>21339.1214</v>
+        <v>17112.3517</v>
       </c>
       <c r="G227" t="n">
-        <v>28.616</v>
+        <v>28.61933333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8459,7 +8483,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8475,7 +8499,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>28.32</v>
+        <v>28.4</v>
       </c>
       <c r="C228" t="n">
         <v>28.4</v>
@@ -8484,13 +8508,13 @@
         <v>28.4</v>
       </c>
       <c r="E228" t="n">
-        <v>28.32</v>
+        <v>28.4</v>
       </c>
       <c r="F228" t="n">
-        <v>738.4</v>
+        <v>21339.1214</v>
       </c>
       <c r="G228" t="n">
-        <v>28.60933333333333</v>
+        <v>28.616</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8500,7 +8524,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8516,7 +8540,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>28.4</v>
+        <v>28.32</v>
       </c>
       <c r="C229" t="n">
         <v>28.4</v>
@@ -8525,13 +8549,13 @@
         <v>28.4</v>
       </c>
       <c r="E229" t="n">
-        <v>28.4</v>
+        <v>28.32</v>
       </c>
       <c r="F229" t="n">
-        <v>247.4282</v>
+        <v>738.4</v>
       </c>
       <c r="G229" t="n">
-        <v>28.601</v>
+        <v>28.60933333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8541,7 +8565,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8569,10 +8593,10 @@
         <v>28.4</v>
       </c>
       <c r="F230" t="n">
-        <v>1100.3545</v>
+        <v>247.4282</v>
       </c>
       <c r="G230" t="n">
-        <v>28.59266666666667</v>
+        <v>28.601</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8582,7 +8606,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8598,22 +8622,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>28.32</v>
+        <v>28.4</v>
       </c>
       <c r="C231" t="n">
-        <v>28.32</v>
+        <v>28.4</v>
       </c>
       <c r="D231" t="n">
-        <v>28.32</v>
+        <v>28.4</v>
       </c>
       <c r="E231" t="n">
-        <v>28.32</v>
+        <v>28.4</v>
       </c>
       <c r="F231" t="n">
-        <v>42</v>
+        <v>1100.3545</v>
       </c>
       <c r="G231" t="n">
-        <v>28.58299999999999</v>
+        <v>28.59266666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8623,7 +8647,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -8639,22 +8663,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>28.35</v>
+        <v>28.32</v>
       </c>
       <c r="C232" t="n">
         <v>28.32</v>
       </c>
       <c r="D232" t="n">
-        <v>28.5</v>
+        <v>28.32</v>
       </c>
       <c r="E232" t="n">
         <v>28.32</v>
       </c>
       <c r="F232" t="n">
-        <v>1283.4</v>
+        <v>42</v>
       </c>
       <c r="G232" t="n">
-        <v>28.572</v>
+        <v>28.58299999999999</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8664,7 +8688,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -8680,22 +8704,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>28.4</v>
+        <v>28.35</v>
       </c>
       <c r="C233" t="n">
-        <v>28.4</v>
+        <v>28.32</v>
       </c>
       <c r="D233" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="E233" t="n">
-        <v>28.4</v>
+        <v>28.32</v>
       </c>
       <c r="F233" t="n">
-        <v>8290.9918</v>
+        <v>1283.4</v>
       </c>
       <c r="G233" t="n">
-        <v>28.56216666666666</v>
+        <v>28.572</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8705,7 +8729,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -8724,19 +8748,19 @@
         <v>28.4</v>
       </c>
       <c r="C234" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="D234" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="E234" t="n">
         <v>28.4</v>
       </c>
       <c r="F234" t="n">
-        <v>55842.1894</v>
+        <v>8290.9918</v>
       </c>
       <c r="G234" t="n">
-        <v>28.55399999999999</v>
+        <v>28.56216666666666</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8746,7 +8770,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -8762,22 +8786,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C235" t="n">
         <v>28.5</v>
       </c>
-      <c r="C235" t="n">
-        <v>28.69</v>
-      </c>
       <c r="D235" t="n">
-        <v>28.69</v>
+        <v>28.5</v>
       </c>
       <c r="E235" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F235" t="n">
-        <v>6358.9937</v>
+        <v>55842.1894</v>
       </c>
       <c r="G235" t="n">
-        <v>28.549</v>
+        <v>28.55399999999999</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8787,7 +8811,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -8803,7 +8827,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>28.69</v>
+        <v>28.5</v>
       </c>
       <c r="C236" t="n">
         <v>28.69</v>
@@ -8812,13 +8836,13 @@
         <v>28.69</v>
       </c>
       <c r="E236" t="n">
-        <v>28.69</v>
+        <v>28.5</v>
       </c>
       <c r="F236" t="n">
-        <v>27721.522</v>
+        <v>6358.9937</v>
       </c>
       <c r="G236" t="n">
-        <v>28.54416666666667</v>
+        <v>28.549</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8828,7 +8852,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -8844,22 +8868,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>28.74</v>
+        <v>28.69</v>
       </c>
       <c r="C237" t="n">
-        <v>28.88</v>
+        <v>28.69</v>
       </c>
       <c r="D237" t="n">
-        <v>28.88</v>
+        <v>28.69</v>
       </c>
       <c r="E237" t="n">
-        <v>28.74</v>
+        <v>28.69</v>
       </c>
       <c r="F237" t="n">
-        <v>1500</v>
+        <v>27721.522</v>
       </c>
       <c r="G237" t="n">
-        <v>28.54233333333333</v>
+        <v>28.54416666666667</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8869,7 +8893,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -8885,7 +8909,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>28.42</v>
+        <v>28.74</v>
       </c>
       <c r="C238" t="n">
         <v>28.88</v>
@@ -8894,13 +8918,13 @@
         <v>28.88</v>
       </c>
       <c r="E238" t="n">
-        <v>28.42</v>
+        <v>28.74</v>
       </c>
       <c r="F238" t="n">
-        <v>702</v>
+        <v>1500</v>
       </c>
       <c r="G238" t="n">
-        <v>28.54533333333334</v>
+        <v>28.54233333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8910,7 +8934,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -8938,10 +8962,10 @@
         <v>28.42</v>
       </c>
       <c r="F239" t="n">
-        <v>25807.5858</v>
+        <v>702</v>
       </c>
       <c r="G239" t="n">
-        <v>28.545</v>
+        <v>28.54533333333334</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8951,7 +8975,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -8967,7 +8991,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>28.88</v>
+        <v>28.42</v>
       </c>
       <c r="C240" t="n">
         <v>28.88</v>
@@ -8976,13 +9000,13 @@
         <v>28.88</v>
       </c>
       <c r="E240" t="n">
-        <v>28.88</v>
+        <v>28.42</v>
       </c>
       <c r="F240" t="n">
-        <v>8749.2839</v>
+        <v>25807.5858</v>
       </c>
       <c r="G240" t="n">
-        <v>28.54783333333334</v>
+        <v>28.545</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8992,7 +9016,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9008,22 +9032,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>28.99</v>
+        <v>28.88</v>
       </c>
       <c r="C241" t="n">
-        <v>28.99</v>
+        <v>28.88</v>
       </c>
       <c r="D241" t="n">
-        <v>28.99</v>
+        <v>28.88</v>
       </c>
       <c r="E241" t="n">
-        <v>28.99</v>
+        <v>28.88</v>
       </c>
       <c r="F241" t="n">
-        <v>59.8959</v>
+        <v>8749.2839</v>
       </c>
       <c r="G241" t="n">
-        <v>28.5525</v>
+        <v>28.54783333333334</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9033,7 +9057,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9061,10 +9085,10 @@
         <v>28.99</v>
       </c>
       <c r="F242" t="n">
-        <v>573.4398</v>
+        <v>59.8959</v>
       </c>
       <c r="G242" t="n">
-        <v>28.55566666666667</v>
+        <v>28.5525</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9074,7 +9098,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9090,40 +9114,40 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>28.88</v>
+        <v>28.99</v>
       </c>
       <c r="C243" t="n">
-        <v>28.88</v>
+        <v>28.99</v>
       </c>
       <c r="D243" t="n">
-        <v>28.88</v>
+        <v>28.99</v>
       </c>
       <c r="E243" t="n">
-        <v>28.88</v>
+        <v>28.99</v>
       </c>
       <c r="F243" t="n">
-        <v>3631.615</v>
+        <v>573.4398</v>
       </c>
       <c r="G243" t="n">
-        <v>28.55700000000001</v>
+        <v>28.55566666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>28.35</v>
+        <v>28.51</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>1.013694885361552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -9134,29 +9158,35 @@
         <v>28.88</v>
       </c>
       <c r="C244" t="n">
-        <v>28.96</v>
+        <v>28.88</v>
       </c>
       <c r="D244" t="n">
-        <v>28.96</v>
+        <v>28.88</v>
       </c>
       <c r="E244" t="n">
-        <v>28.5</v>
+        <v>28.88</v>
       </c>
       <c r="F244" t="n">
-        <v>696.8</v>
+        <v>3631.615</v>
       </c>
       <c r="G244" t="n">
-        <v>28.55966666666667</v>
+        <v>28.55700000000001</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9166,22 +9196,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>28.65</v>
+        <v>28.88</v>
       </c>
       <c r="C245" t="n">
-        <v>28.9</v>
+        <v>28.96</v>
       </c>
       <c r="D245" t="n">
-        <v>28.9</v>
+        <v>28.96</v>
       </c>
       <c r="E245" t="n">
-        <v>28.65</v>
+        <v>28.5</v>
       </c>
       <c r="F245" t="n">
-        <v>698.1</v>
+        <v>696.8</v>
       </c>
       <c r="G245" t="n">
-        <v>28.56133333333334</v>
+        <v>28.55966666666667</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9190,8 +9220,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9201,22 +9237,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>28.85</v>
+        <v>28.65</v>
       </c>
       <c r="C246" t="n">
-        <v>28.85</v>
+        <v>28.9</v>
       </c>
       <c r="D246" t="n">
-        <v>28.85</v>
+        <v>28.9</v>
       </c>
       <c r="E246" t="n">
-        <v>28.85</v>
+        <v>28.65</v>
       </c>
       <c r="F246" t="n">
-        <v>18</v>
+        <v>698.1</v>
       </c>
       <c r="G246" t="n">
-        <v>28.56216666666667</v>
+        <v>28.56133333333334</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9225,8 +9261,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9236,7 +9278,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>28.7</v>
+        <v>28.85</v>
       </c>
       <c r="C247" t="n">
         <v>28.85</v>
@@ -9245,13 +9287,13 @@
         <v>28.85</v>
       </c>
       <c r="E247" t="n">
-        <v>28.7</v>
+        <v>28.85</v>
       </c>
       <c r="F247" t="n">
-        <v>657.8</v>
+        <v>18</v>
       </c>
       <c r="G247" t="n">
-        <v>28.56300000000001</v>
+        <v>28.56216666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9260,8 +9302,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9271,7 +9319,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>28.85</v>
+        <v>28.7</v>
       </c>
       <c r="C248" t="n">
         <v>28.85</v>
@@ -9280,13 +9328,13 @@
         <v>28.85</v>
       </c>
       <c r="E248" t="n">
-        <v>28.85</v>
+        <v>28.7</v>
       </c>
       <c r="F248" t="n">
-        <v>18287.6938</v>
+        <v>657.8</v>
       </c>
       <c r="G248" t="n">
-        <v>28.56866666666667</v>
+        <v>28.56300000000001</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9295,8 +9343,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9318,10 +9372,10 @@
         <v>28.85</v>
       </c>
       <c r="F249" t="n">
-        <v>1328.8035</v>
+        <v>18287.6938</v>
       </c>
       <c r="G249" t="n">
-        <v>28.5745</v>
+        <v>28.56866666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9330,8 +9384,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9341,22 +9401,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>28.65</v>
+        <v>28.85</v>
       </c>
       <c r="C250" t="n">
-        <v>28.65</v>
+        <v>28.85</v>
       </c>
       <c r="D250" t="n">
-        <v>28.65</v>
+        <v>28.85</v>
       </c>
       <c r="E250" t="n">
-        <v>28.65</v>
+        <v>28.85</v>
       </c>
       <c r="F250" t="n">
-        <v>136.7424</v>
+        <v>1328.8035</v>
       </c>
       <c r="G250" t="n">
-        <v>28.57700000000001</v>
+        <v>28.5745</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9365,8 +9425,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9379,19 +9445,19 @@
         <v>28.65</v>
       </c>
       <c r="C251" t="n">
-        <v>28.89</v>
+        <v>28.65</v>
       </c>
       <c r="D251" t="n">
-        <v>28.89</v>
+        <v>28.65</v>
       </c>
       <c r="E251" t="n">
         <v>28.65</v>
       </c>
       <c r="F251" t="n">
-        <v>630.5</v>
+        <v>136.7424</v>
       </c>
       <c r="G251" t="n">
-        <v>28.58483333333334</v>
+        <v>28.57700000000001</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9400,8 +9466,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9414,19 +9486,19 @@
         <v>28.65</v>
       </c>
       <c r="C252" t="n">
-        <v>28.65</v>
+        <v>28.89</v>
       </c>
       <c r="D252" t="n">
-        <v>28.65</v>
+        <v>28.89</v>
       </c>
       <c r="E252" t="n">
         <v>28.65</v>
       </c>
       <c r="F252" t="n">
-        <v>3841.2576</v>
+        <v>630.5</v>
       </c>
       <c r="G252" t="n">
-        <v>28.58966666666668</v>
+        <v>28.58483333333334</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9435,8 +9507,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9449,19 +9527,19 @@
         <v>28.65</v>
       </c>
       <c r="C253" t="n">
-        <v>28.9</v>
+        <v>28.65</v>
       </c>
       <c r="D253" t="n">
-        <v>28.9</v>
+        <v>28.65</v>
       </c>
       <c r="E253" t="n">
         <v>28.65</v>
       </c>
       <c r="F253" t="n">
-        <v>17393.91797294118</v>
+        <v>3841.2576</v>
       </c>
       <c r="G253" t="n">
-        <v>28.59950000000001</v>
+        <v>28.58966666666668</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9470,8 +9548,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9481,22 +9565,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="C254" t="n">
         <v>28.9</v>
       </c>
-      <c r="C254" t="n">
-        <v>28.94</v>
-      </c>
       <c r="D254" t="n">
-        <v>28.94</v>
+        <v>28.9</v>
       </c>
       <c r="E254" t="n">
-        <v>28.5</v>
+        <v>28.65</v>
       </c>
       <c r="F254" t="n">
-        <v>17969.20958276028</v>
+        <v>17393.91797294118</v>
       </c>
       <c r="G254" t="n">
-        <v>28.60283333333335</v>
+        <v>28.59950000000001</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9505,8 +9589,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9516,22 +9606,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>28.76</v>
+        <v>28.9</v>
       </c>
       <c r="C255" t="n">
-        <v>28.76</v>
+        <v>28.94</v>
       </c>
       <c r="D255" t="n">
-        <v>28.76</v>
+        <v>28.94</v>
       </c>
       <c r="E255" t="n">
-        <v>28.76</v>
+        <v>28.5</v>
       </c>
       <c r="F255" t="n">
-        <v>3578.0319</v>
+        <v>17969.20958276028</v>
       </c>
       <c r="G255" t="n">
-        <v>28.60316666666668</v>
+        <v>28.60283333333335</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9540,8 +9630,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9551,22 +9647,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>28.61</v>
+        <v>28.76</v>
       </c>
       <c r="C256" t="n">
-        <v>28.6</v>
+        <v>28.76</v>
       </c>
       <c r="D256" t="n">
-        <v>28.61</v>
+        <v>28.76</v>
       </c>
       <c r="E256" t="n">
-        <v>28.6</v>
+        <v>28.76</v>
       </c>
       <c r="F256" t="n">
-        <v>6805.8654</v>
+        <v>3578.0319</v>
       </c>
       <c r="G256" t="n">
-        <v>28.60083333333334</v>
+        <v>28.60316666666668</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9575,8 +9671,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9586,22 +9688,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="C257" t="n">
         <v>28.6</v>
       </c>
-      <c r="C257" t="n">
-        <v>28.8</v>
-      </c>
       <c r="D257" t="n">
-        <v>28.8</v>
+        <v>28.61</v>
       </c>
       <c r="E257" t="n">
         <v>28.6</v>
       </c>
       <c r="F257" t="n">
-        <v>625.3</v>
+        <v>6805.8654</v>
       </c>
       <c r="G257" t="n">
-        <v>28.60416666666668</v>
+        <v>28.60083333333334</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9610,8 +9712,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9624,19 +9732,19 @@
         <v>28.6</v>
       </c>
       <c r="C258" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="D258" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="E258" t="n">
         <v>28.6</v>
       </c>
       <c r="F258" t="n">
-        <v>2616.4249</v>
+        <v>625.3</v>
       </c>
       <c r="G258" t="n">
-        <v>28.60566666666668</v>
+        <v>28.60416666666668</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9645,8 +9753,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9668,10 +9782,10 @@
         <v>28.6</v>
       </c>
       <c r="F259" t="n">
-        <v>78.48332727272727</v>
+        <v>2616.4249</v>
       </c>
       <c r="G259" t="n">
-        <v>28.60716666666668</v>
+        <v>28.60566666666668</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9680,8 +9794,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9691,22 +9811,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C260" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D260" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E260" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F260" t="n">
-        <v>21117.5514</v>
+        <v>78.48332727272727</v>
       </c>
       <c r="G260" t="n">
-        <v>28.60700000000001</v>
+        <v>28.60716666666668</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9715,8 +9835,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9738,10 +9864,10 @@
         <v>28.5</v>
       </c>
       <c r="F261" t="n">
-        <v>3429.7697</v>
+        <v>21117.5514</v>
       </c>
       <c r="G261" t="n">
-        <v>28.60683333333334</v>
+        <v>28.60700000000001</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9750,8 +9876,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9773,10 +9905,10 @@
         <v>28.5</v>
       </c>
       <c r="F262" t="n">
-        <v>800</v>
+        <v>3429.7697</v>
       </c>
       <c r="G262" t="n">
-        <v>28.61000000000001</v>
+        <v>28.60683333333334</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9785,8 +9917,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9808,10 +9946,10 @@
         <v>28.5</v>
       </c>
       <c r="F263" t="n">
-        <v>1168</v>
+        <v>800</v>
       </c>
       <c r="G263" t="n">
-        <v>28.60833333333334</v>
+        <v>28.61000000000001</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9820,8 +9958,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9834,19 +9978,19 @@
         <v>28.5</v>
       </c>
       <c r="C264" t="n">
-        <v>28.79</v>
+        <v>28.5</v>
       </c>
       <c r="D264" t="n">
-        <v>28.79</v>
+        <v>28.5</v>
       </c>
       <c r="E264" t="n">
         <v>28.5</v>
       </c>
       <c r="F264" t="n">
-        <v>642.2</v>
+        <v>1168</v>
       </c>
       <c r="G264" t="n">
-        <v>28.61483333333334</v>
+        <v>28.60833333333334</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9855,8 +9999,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9866,7 +10016,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>28.79</v>
+        <v>28.5</v>
       </c>
       <c r="C265" t="n">
         <v>28.79</v>
@@ -9875,13 +10025,13 @@
         <v>28.79</v>
       </c>
       <c r="E265" t="n">
-        <v>28.79</v>
+        <v>28.5</v>
       </c>
       <c r="F265" t="n">
-        <v>7844.1656</v>
+        <v>642.2</v>
       </c>
       <c r="G265" t="n">
-        <v>28.62133333333334</v>
+        <v>28.61483333333334</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9890,8 +10040,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9901,32 +10057,38 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="C266" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="D266" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="E266" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="F266" t="n">
+        <v>7844.1656</v>
+      </c>
+      <c r="G266" t="n">
+        <v>28.62133333333334</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
         <v>28.51</v>
       </c>
-      <c r="C266" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D266" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="E266" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F266" t="n">
-        <v>16936.7635</v>
-      </c>
-      <c r="G266" t="n">
-        <v>28.62383333333334</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9936,22 +10098,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>28.4</v>
+        <v>28.51</v>
       </c>
       <c r="C267" t="n">
-        <v>28.38</v>
+        <v>28.5</v>
       </c>
       <c r="D267" t="n">
-        <v>28.4</v>
+        <v>28.51</v>
       </c>
       <c r="E267" t="n">
-        <v>28.38</v>
+        <v>28.5</v>
       </c>
       <c r="F267" t="n">
         <v>16936.7635</v>
       </c>
       <c r="G267" t="n">
-        <v>28.62183333333335</v>
+        <v>28.62383333333334</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9960,8 +10122,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9971,22 +10139,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="C268" t="n">
-        <v>28.7</v>
+        <v>28.38</v>
       </c>
       <c r="D268" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="E268" t="n">
-        <v>28.6</v>
+        <v>28.38</v>
       </c>
       <c r="F268" t="n">
-        <v>16037.23333797909</v>
+        <v>16936.7635</v>
       </c>
       <c r="G268" t="n">
-        <v>28.62533333333334</v>
+        <v>28.62183333333335</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9995,8 +10163,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10006,22 +10180,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C269" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D269" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="E269" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F269" t="n">
-        <v>17048.4694</v>
+        <v>16037.23333797909</v>
       </c>
       <c r="G269" t="n">
-        <v>28.62550000000001</v>
+        <v>28.62533333333334</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10030,8 +10204,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10053,10 +10233,10 @@
         <v>28.5</v>
       </c>
       <c r="F270" t="n">
-        <v>16018.1631</v>
+        <v>17048.4694</v>
       </c>
       <c r="G270" t="n">
-        <v>28.62866666666668</v>
+        <v>28.62550000000001</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10065,8 +10245,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10076,22 +10262,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C271" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="D271" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="E271" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F271" t="n">
-        <v>617.5</v>
+        <v>16018.1631</v>
       </c>
       <c r="G271" t="n">
-        <v>28.63033333333334</v>
+        <v>28.62866666666668</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10100,8 +10286,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10111,22 +10303,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C272" t="n">
-        <v>28.37</v>
+        <v>28.8</v>
       </c>
       <c r="D272" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="E272" t="n">
-        <v>28.37</v>
+        <v>28.6</v>
       </c>
       <c r="F272" t="n">
-        <v>65536.3272</v>
+        <v>617.5</v>
       </c>
       <c r="G272" t="n">
-        <v>28.63133333333334</v>
+        <v>28.63033333333334</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10135,8 +10327,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10158,10 +10356,10 @@
         <v>28.37</v>
       </c>
       <c r="F273" t="n">
-        <v>52164.2554</v>
+        <v>65536.3272</v>
       </c>
       <c r="G273" t="n">
-        <v>28.62916666666667</v>
+        <v>28.63133333333334</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10170,8 +10368,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10181,33 +10385,80 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>28.37</v>
+        <v>28.5</v>
       </c>
       <c r="C274" t="n">
         <v>28.37</v>
       </c>
       <c r="D274" t="n">
-        <v>28.37</v>
+        <v>28.5</v>
       </c>
       <c r="E274" t="n">
         <v>28.37</v>
       </c>
       <c r="F274" t="n">
+        <v>52164.2554</v>
+      </c>
+      <c r="G274" t="n">
+        <v>28.62916666666667</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="C275" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="D275" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="E275" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="F275" t="n">
         <v>44073.2828</v>
       </c>
-      <c r="G274" t="n">
+      <c r="G275" t="n">
         <v>28.62700000000001</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M275" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest FCT.xlsx
+++ b/BackTest/2020-01-26 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N343"/>
+  <dimension ref="A1:M343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>10775887.71589721</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>10715322.35839721</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>10715322.35839721</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>10692551.32666816</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>10663378.13643706</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>10639463.4665234</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4180,15 @@
         <v>10626375.0336234</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4213,15 @@
         <v>10627068.9961234</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4246,15 @@
         <v>10627834.6961234</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,15 @@
         <v>10621772.3043234</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4708,15 @@
         <v>10674623.16012228</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4774,15 @@
         <v>10622811.59612228</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4807,15 @@
         <v>10622811.59612228</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +4873,15 @@
         <v>10676877.35822228</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7548,22 +6952,15 @@
         <v>9593810.66593462</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="K199" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7590,22 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7632,22 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7674,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7710,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7746,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7782,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7818,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7854,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7890,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7926,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7962,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7998,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8034,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8070,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8106,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8142,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8178,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8214,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8250,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8286,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8322,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8358,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8394,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8430,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8466,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8502,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8538,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8574,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8610,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8646,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8682,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8718,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8754,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8790,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8826,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8862,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8898,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8934,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8970,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9006,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9042,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9078,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9114,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9150,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9186,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9222,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9256,18 +8503,19 @@
         <v>9328651.199934622</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
+        <v>28.8</v>
+      </c>
+      <c r="J246" t="n">
+        <v>28.8</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9292,18 +8540,23 @@
         <v>9261423.634934623</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+        <v>28.8</v>
+      </c>
+      <c r="J247" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9330,16 +8583,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9366,16 +8622,19 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9402,16 +8661,19 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9438,16 +8700,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9472,18 +8737,23 @@
         <v>9191217.075734623</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+        <v>28.36</v>
+      </c>
+      <c r="J252" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9510,16 +8780,19 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9546,16 +8819,19 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9582,16 +8858,19 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9618,16 +8897,19 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9654,16 +8936,19 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9690,16 +8975,19 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9726,16 +9014,19 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9760,18 +9051,23 @@
         <v>9186862.928534623</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+        <v>28.51</v>
+      </c>
+      <c r="J260" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9798,16 +9094,19 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9832,18 +9131,23 @@
         <v>9147216.664134623</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+        <v>28.31</v>
+      </c>
+      <c r="J262" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9870,16 +9174,19 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9906,16 +9213,19 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9942,16 +9252,19 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9978,16 +9291,19 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10014,16 +9330,19 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10048,18 +9367,23 @@
         <v>9114573.175034624</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+        <v>28.49</v>
+      </c>
+      <c r="J268" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10084,18 +9408,23 @@
         <v>8879835.427934624</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+        <v>28.49</v>
+      </c>
+      <c r="J269" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10120,18 +9449,23 @@
         <v>8880620.627934624</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+        <v>28.31</v>
+      </c>
+      <c r="J270" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10158,16 +9492,19 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10192,18 +9529,23 @@
         <v>8792443.779334623</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+        <v>28.31</v>
+      </c>
+      <c r="J272" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10230,16 +9572,19 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10266,16 +9611,19 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10300,18 +9648,23 @@
         <v>8834752.618034624</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+        <v>28.5</v>
+      </c>
+      <c r="J275" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10336,24 +9689,23 @@
         <v>8835608.018034624</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="J276" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K276" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10378,22 +9730,23 @@
         <v>8835608.018034624</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
+        <v>28.69</v>
+      </c>
+      <c r="J277" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10418,22 +9771,23 @@
         <v>8812480.519834625</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
+        <v>28.69</v>
+      </c>
+      <c r="J278" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10458,22 +9812,23 @@
         <v>8812480.519834625</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
+        <v>28.4</v>
+      </c>
+      <c r="J279" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10498,24 +9853,23 @@
         <v>8780607.644134624</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="J280" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10540,24 +9894,23 @@
         <v>8790210.517434623</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>28.31</v>
       </c>
       <c r="J281" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10582,24 +9935,23 @@
         <v>8767311.213434624</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="J282" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10624,24 +9976,23 @@
         <v>8773830.200434623</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>28.31</v>
       </c>
       <c r="J283" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10666,24 +10017,23 @@
         <v>8774603.700434623</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="J284" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10708,24 +10058,23 @@
         <v>8774603.700434623</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="J285" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10750,24 +10099,23 @@
         <v>8753264.579034623</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="J286" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10792,24 +10140,23 @@
         <v>8753264.579034623</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="J287" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10834,24 +10181,23 @@
         <v>8753264.579034623</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="J288" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10876,24 +10222,23 @@
         <v>8753264.579034623</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="J289" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10918,24 +10263,23 @@
         <v>8753222.579034623</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="J290" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10960,24 +10304,23 @@
         <v>8753222.579034623</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>28.32</v>
       </c>
       <c r="J291" t="n">
-        <v>28.32</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11002,24 +10345,23 @@
         <v>8761513.570834624</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>28.32</v>
       </c>
       <c r="J292" t="n">
-        <v>28.32</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11044,24 +10386,23 @@
         <v>8817355.760234624</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="J293" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11086,24 +10427,23 @@
         <v>8823714.753934624</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="J294" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11128,24 +10468,23 @@
         <v>8823714.753934624</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>28.69</v>
       </c>
       <c r="J295" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11170,24 +10509,23 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>28.69</v>
       </c>
       <c r="J296" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11212,24 +10550,23 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>28.88</v>
       </c>
       <c r="J297" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11254,24 +10591,21 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11296,24 +10630,21 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11340,20 +10671,19 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11380,20 +10710,19 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11420,20 +10749,19 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11460,20 +10788,19 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11500,20 +10827,19 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11540,20 +10866,19 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11580,20 +10905,19 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11620,20 +10944,19 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11660,20 +10983,19 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11698,22 +11020,23 @@
         <v>8821486.992434625</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
+        <v>28.85</v>
+      </c>
+      <c r="J309" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11738,22 +11061,23 @@
         <v>8822117.492434625</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
+        <v>28.65</v>
+      </c>
+      <c r="J310" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11778,22 +11102,23 @@
         <v>8818276.234834624</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
+        <v>28.89</v>
+      </c>
+      <c r="J311" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11820,20 +11145,19 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11860,20 +11184,19 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11900,20 +11223,19 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11940,20 +11262,19 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11978,24 +11299,21 @@
         <v>8843880.765090328</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12022,20 +11340,19 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12060,24 +11377,23 @@
         <v>8841264.340190327</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="J318" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12102,24 +11418,23 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="J319" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12144,24 +11459,21 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12186,24 +11498,21 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12228,24 +11537,23 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="n">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="J322" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12270,24 +11578,21 @@
         <v>8820788.988790326</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12312,24 +11617,21 @@
         <v>8820788.988790326</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>28.79</v>
-      </c>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12354,24 +11656,21 @@
         <v>8803852.225290326</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>28.79</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12396,24 +11695,21 @@
         <v>8786915.461790327</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12438,24 +11734,21 @@
         <v>8802952.695128307</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>28.38</v>
-      </c>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12480,24 +11773,21 @@
         <v>8785904.225728307</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12522,24 +11812,21 @@
         <v>8785904.225728307</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12564,24 +11851,21 @@
         <v>8786521.725728307</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12606,24 +11890,21 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
         <v>28.8</v>
       </c>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
+      <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12648,24 +11929,21 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>28.37</v>
-      </c>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12690,24 +11968,23 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="n">
-        <v>0</v>
+        <v>28.37</v>
       </c>
       <c r="J333" t="n">
-        <v>28.37</v>
-      </c>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12732,24 +12009,23 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
+        <v>28.37</v>
       </c>
       <c r="J334" t="n">
-        <v>28.37</v>
-      </c>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12774,24 +12050,23 @@
         <v>8721658.798528308</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" t="n">
-        <v>0</v>
+        <v>28.37</v>
       </c>
       <c r="J335" t="n">
-        <v>28.37</v>
-      </c>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12816,24 +12091,21 @@
         <v>8721557.699528309</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12858,24 +12130,21 @@
         <v>8726622.621628309</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>28.38</v>
-      </c>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12900,24 +12169,23 @@
         <v>8746400.621628309</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="n">
-        <v>0</v>
+        <v>28.42</v>
       </c>
       <c r="J338" t="n">
-        <v>28.42</v>
-      </c>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12942,24 +12210,23 @@
         <v>8746400.621628309</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="J339" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12984,24 +12251,21 @@
         <v>8728546.226728309</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13026,24 +12290,21 @@
         <v>8728744.73722831</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>28.43</v>
-      </c>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13070,20 +12331,19 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13110,22 +12370,21 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest FCT.xlsx
+++ b/BackTest/2020-01-26 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>8424690.67070307</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>10775887.71589721</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>10715322.35839721</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>10715322.35839721</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>10692551.32666816</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>10663378.13643706</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>10639463.4665234</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>10626375.0336234</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>10627068.9961234</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>10627834.6961234</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>10621772.3043234</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>10674623.16012228</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>10622811.59612228</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>10622811.59612228</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>10676877.35822228</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>10657233.37292228</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>10667126.67752228</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>10672955.03062228</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>10666724.23562228</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>10666724.23562228</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>10683446.85769463</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>10737271.21253462</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>10737271.21253462</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>10721917.38103462</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>10691048.62103462</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>10710302.71733462</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>10695048.88583462</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>10695091.13943462</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>10695091.13943462</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>10689589.62683462</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>10730981.00383462</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>10699315.56523462</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>10611540.49073462</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>10612278.89073462</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>10659318.67883462</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>10704424.37713462</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>10666999.85643462</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>10666981.85643462</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>10647613.39813462</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>10648316.69813462</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>10638814.83103462</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>10638814.83103462</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>10376466.85983462</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>9789675.53773462</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>9789675.53773462</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>9790402.23773462</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>9790402.23773462</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>9758480.62463462</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -8503,14 +8503,10 @@
         <v>9328651.199934622</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J246" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
@@ -8540,1168 +8536,974 @@
         <v>9261423.634934623</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J247" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K247" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="C248" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="E248" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>32181.1077</v>
+      </c>
+      <c r="G248" t="n">
+        <v>9229242.527234623</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="C249" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D249" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E249" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="F249" t="n">
+        <v>854.1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>9229242.527234623</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="C250" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="D250" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="E250" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="F250" t="n">
+        <v>10336.1537</v>
+      </c>
+      <c r="G250" t="n">
+        <v>9218906.373534624</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="C251" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="D251" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="E251" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="F251" t="n">
+        <v>501.4505</v>
+      </c>
+      <c r="G251" t="n">
+        <v>9218404.923034623</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="C252" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="D252" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="E252" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="F252" t="n">
+        <v>27187.8473</v>
+      </c>
+      <c r="G252" t="n">
+        <v>9191217.075734623</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C253" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="D253" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="E253" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F253" t="n">
+        <v>877.5</v>
+      </c>
+      <c r="G253" t="n">
+        <v>9192094.575734623</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="C254" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="D254" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="E254" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="F254" t="n">
+        <v>20</v>
+      </c>
+      <c r="G254" t="n">
+        <v>9192094.575734623</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C255" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="D255" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="E255" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F255" t="n">
+        <v>865.8</v>
+      </c>
+      <c r="G255" t="n">
+        <v>9192094.575734623</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="C256" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D256" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E256" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="F256" t="n">
+        <v>868.4</v>
+      </c>
+      <c r="G256" t="n">
+        <v>9191226.175734622</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="C257" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="D257" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="E257" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="F257" t="n">
+        <v>4363.2472</v>
+      </c>
+      <c r="G257" t="n">
+        <v>9186862.928534623</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="C258" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="D258" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="E258" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="F258" t="n">
+        <v>17700</v>
+      </c>
+      <c r="G258" t="n">
+        <v>9186862.928534623</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="C259" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="D259" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="E259" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="F259" t="n">
+        <v>7065.9811</v>
+      </c>
+      <c r="G259" t="n">
+        <v>9186862.928534623</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="C260" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="D260" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="E260" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="F260" t="n">
+        <v>4223.0339</v>
+      </c>
+      <c r="G260" t="n">
+        <v>9186862.928534623</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="C261" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="D261" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="E261" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="F261" t="n">
+        <v>40510.7644</v>
+      </c>
+      <c r="G261" t="n">
+        <v>9146352.164134623</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C262" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D262" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E262" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F262" t="n">
+        <v>864.5</v>
+      </c>
+      <c r="G262" t="n">
+        <v>9147216.664134623</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C263" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D263" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E263" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F263" t="n">
+        <v>900</v>
+      </c>
+      <c r="G263" t="n">
+        <v>9146316.664134623</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C264" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D264" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E264" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F264" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="G264" t="n">
+        <v>9146316.664134623</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C265" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="D265" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E265" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="F265" t="n">
+        <v>24338.6945</v>
+      </c>
+      <c r="G265" t="n">
+        <v>9121977.969634624</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="C266" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D266" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E266" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="F266" t="n">
+        <v>882.7</v>
+      </c>
+      <c r="G266" t="n">
+        <v>9122860.669634623</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C267" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="D267" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E267" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="F267" t="n">
+        <v>8287.4946</v>
+      </c>
+      <c r="G267" t="n">
+        <v>9114573.175034624</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="C268" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="D268" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="E268" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2961.8002</v>
+      </c>
+      <c r="G268" t="n">
+        <v>9114573.175034624</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C269" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="D269" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E269" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="F269" t="n">
+        <v>234737.7471</v>
+      </c>
+      <c r="G269" t="n">
+        <v>8879835.427934624</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C270" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D270" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E270" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F270" t="n">
+        <v>785.2</v>
+      </c>
+      <c r="G270" t="n">
+        <v>8880620.627934624</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="C271" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="D271" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="E271" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="F271" t="n">
+        <v>88998.4486</v>
+      </c>
+      <c r="G271" t="n">
+        <v>8791622.179334624</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="C272" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D272" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E272" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="F272" t="n">
+        <v>821.6</v>
+      </c>
+      <c r="G272" t="n">
+        <v>8792443.779334623</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="C273" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D273" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E273" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="F273" t="n">
+        <v>837.2</v>
+      </c>
+      <c r="G273" t="n">
+        <v>8792443.779334623</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C274" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D274" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E274" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3267.3314</v>
+      </c>
+      <c r="G274" t="n">
+        <v>8792443.779334623</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C275" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D275" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E275" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F275" t="n">
+        <v>42308.8387</v>
+      </c>
+      <c r="G275" t="n">
+        <v>8834752.618034624</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C276" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="D276" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="E276" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F276" t="n">
+        <v>855.4</v>
+      </c>
+      <c r="G276" t="n">
+        <v>8835608.018034624</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="C248" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D248" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="E248" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F248" t="n">
-        <v>32181.1077</v>
-      </c>
-      <c r="G248" t="n">
-        <v>9229242.527234623</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>28.42</v>
-      </c>
-      <c r="C249" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D249" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E249" t="n">
-        <v>28.42</v>
-      </c>
-      <c r="F249" t="n">
-        <v>854.1</v>
-      </c>
-      <c r="G249" t="n">
-        <v>9229242.527234623</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>28.42</v>
-      </c>
-      <c r="C250" t="n">
-        <v>28.42</v>
-      </c>
-      <c r="D250" t="n">
-        <v>28.42</v>
-      </c>
-      <c r="E250" t="n">
-        <v>28.42</v>
-      </c>
-      <c r="F250" t="n">
-        <v>10336.1537</v>
-      </c>
-      <c r="G250" t="n">
-        <v>9218906.373534624</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>28.36</v>
-      </c>
-      <c r="C251" t="n">
-        <v>28.36</v>
-      </c>
-      <c r="D251" t="n">
-        <v>28.36</v>
-      </c>
-      <c r="E251" t="n">
-        <v>28.36</v>
-      </c>
-      <c r="F251" t="n">
-        <v>501.4505</v>
-      </c>
-      <c r="G251" t="n">
-        <v>9218404.923034623</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>28.37</v>
-      </c>
-      <c r="C252" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="D252" t="n">
-        <v>28.37</v>
-      </c>
-      <c r="E252" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="F252" t="n">
-        <v>27187.8473</v>
-      </c>
-      <c r="G252" t="n">
-        <v>9191217.075734623</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>28.36</v>
-      </c>
-      <c r="J252" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C253" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="D253" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="E253" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F253" t="n">
-        <v>877.5</v>
-      </c>
-      <c r="G253" t="n">
-        <v>9192094.575734623</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="C254" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="D254" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="E254" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="F254" t="n">
-        <v>20</v>
-      </c>
-      <c r="G254" t="n">
-        <v>9192094.575734623</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C255" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="D255" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="E255" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F255" t="n">
-        <v>865.8</v>
-      </c>
-      <c r="G255" t="n">
-        <v>9192094.575734623</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="C256" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D256" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E256" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="F256" t="n">
-        <v>868.4</v>
-      </c>
-      <c r="G256" t="n">
-        <v>9191226.175734622</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="C257" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="D257" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="E257" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="F257" t="n">
-        <v>4363.2472</v>
-      </c>
-      <c r="G257" t="n">
-        <v>9186862.928534623</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="C258" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="D258" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="E258" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="F258" t="n">
-        <v>17700</v>
-      </c>
-      <c r="G258" t="n">
-        <v>9186862.928534623</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="C259" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="D259" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="E259" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="F259" t="n">
-        <v>7065.9811</v>
-      </c>
-      <c r="G259" t="n">
-        <v>9186862.928534623</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="C260" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="D260" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="E260" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="F260" t="n">
-        <v>4223.0339</v>
-      </c>
-      <c r="G260" t="n">
-        <v>9186862.928534623</v>
-      </c>
-      <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="J260" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="C261" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="D261" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="E261" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="F261" t="n">
-        <v>40510.7644</v>
-      </c>
-      <c r="G261" t="n">
-        <v>9146352.164134623</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C262" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D262" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E262" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F262" t="n">
-        <v>864.5</v>
-      </c>
-      <c r="G262" t="n">
-        <v>9147216.664134623</v>
-      </c>
-      <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="J262" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C263" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D263" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E263" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F263" t="n">
-        <v>900</v>
-      </c>
-      <c r="G263" t="n">
-        <v>9146316.664134623</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C264" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D264" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E264" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F264" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="G264" t="n">
-        <v>9146316.664134623</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C265" t="n">
-        <v>28.35</v>
-      </c>
-      <c r="D265" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E265" t="n">
-        <v>28.35</v>
-      </c>
-      <c r="F265" t="n">
-        <v>24338.6945</v>
-      </c>
-      <c r="G265" t="n">
-        <v>9121977.969634624</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>28.36</v>
-      </c>
-      <c r="C266" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D266" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E266" t="n">
-        <v>28.36</v>
-      </c>
-      <c r="F266" t="n">
-        <v>882.7</v>
-      </c>
-      <c r="G266" t="n">
-        <v>9122860.669634623</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C267" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="D267" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E267" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="F267" t="n">
-        <v>8287.4946</v>
-      </c>
-      <c r="G267" t="n">
-        <v>9114573.175034624</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="C268" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="D268" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="E268" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="F268" t="n">
-        <v>2961.8002</v>
-      </c>
-      <c r="G268" t="n">
-        <v>9114573.175034624</v>
-      </c>
-      <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="J268" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C269" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="D269" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E269" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="F269" t="n">
-        <v>234737.7471</v>
-      </c>
-      <c r="G269" t="n">
-        <v>8879835.427934624</v>
-      </c>
-      <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="J269" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C270" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D270" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E270" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F270" t="n">
-        <v>785.2</v>
-      </c>
-      <c r="G270" t="n">
-        <v>8880620.627934624</v>
-      </c>
-      <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="J270" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>28.32</v>
-      </c>
-      <c r="C271" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="D271" t="n">
-        <v>28.32</v>
-      </c>
-      <c r="E271" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="F271" t="n">
-        <v>88998.4486</v>
-      </c>
-      <c r="G271" t="n">
-        <v>8791622.179334624</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="C272" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D272" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E272" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="F272" t="n">
-        <v>821.6</v>
-      </c>
-      <c r="G272" t="n">
-        <v>8792443.779334623</v>
-      </c>
-      <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="J272" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="C273" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D273" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E273" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="F273" t="n">
-        <v>837.2</v>
-      </c>
-      <c r="G273" t="n">
-        <v>8792443.779334623</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C274" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D274" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E274" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F274" t="n">
-        <v>3267.3314</v>
-      </c>
-      <c r="G274" t="n">
-        <v>8792443.779334623</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C275" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D275" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E275" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F275" t="n">
-        <v>42308.8387</v>
-      </c>
-      <c r="G275" t="n">
-        <v>8834752.618034624</v>
-      </c>
-      <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J275" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C276" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="D276" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="E276" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F276" t="n">
-        <v>855.4</v>
-      </c>
-      <c r="G276" t="n">
-        <v>8835608.018034624</v>
-      </c>
-      <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J276" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9730,14 +9532,10 @@
         <v>8835608.018034624</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="J277" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9771,14 +9569,10 @@
         <v>8812480.519834625</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="J278" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9812,14 +9606,12 @@
         <v>8812480.519834625</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>28.4</v>
       </c>
-      <c r="J279" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9853,14 +9645,12 @@
         <v>8780607.644134624</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>28.4</v>
       </c>
-      <c r="J280" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9894,14 +9684,12 @@
         <v>8790210.517434623</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>28.31</v>
       </c>
-      <c r="J281" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9935,14 +9723,12 @@
         <v>8767311.213434624</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>28.4</v>
       </c>
-      <c r="J282" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9976,14 +9762,12 @@
         <v>8773830.200434623</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>28.31</v>
       </c>
-      <c r="J283" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10017,14 +9801,12 @@
         <v>8774603.700434623</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>28.5</v>
       </c>
-      <c r="J284" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10058,14 +9840,12 @@
         <v>8774603.700434623</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>28.6</v>
       </c>
-      <c r="J285" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10099,14 +9879,12 @@
         <v>8753264.579034623</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>28.6</v>
       </c>
-      <c r="J286" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10140,14 +9918,12 @@
         <v>8753264.579034623</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>28.4</v>
       </c>
-      <c r="J287" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10181,14 +9957,12 @@
         <v>8753264.579034623</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>28.4</v>
       </c>
-      <c r="J288" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10222,14 +9996,12 @@
         <v>8753264.579034623</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>28.4</v>
       </c>
-      <c r="J289" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10263,14 +10035,12 @@
         <v>8753222.579034623</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>28.4</v>
       </c>
-      <c r="J290" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10304,14 +10074,12 @@
         <v>8753222.579034623</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>28.32</v>
       </c>
-      <c r="J291" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10345,14 +10113,12 @@
         <v>8761513.570834624</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>28.32</v>
       </c>
-      <c r="J292" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10386,14 +10152,12 @@
         <v>8817355.760234624</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>28.4</v>
       </c>
-      <c r="J293" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10427,14 +10191,12 @@
         <v>8823714.753934624</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>28.5</v>
       </c>
-      <c r="J294" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10468,14 +10230,12 @@
         <v>8823714.753934624</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>28.69</v>
       </c>
-      <c r="J295" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10509,14 +10269,12 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>28.69</v>
       </c>
-      <c r="J296" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10550,14 +10308,12 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>28.88</v>
       </c>
-      <c r="J297" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10591,12 +10347,12 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10630,12 +10386,12 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10672,9 +10428,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10711,9 +10465,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10750,9 +10502,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10789,9 +10539,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10828,9 +10576,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10867,9 +10613,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10906,9 +10650,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10945,9 +10687,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10981,12 +10721,12 @@
         <v>8821623.734834624</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11020,14 +10760,10 @@
         <v>8821486.992434625</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>28.85</v>
-      </c>
-      <c r="J309" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11061,14 +10797,12 @@
         <v>8822117.492434625</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>28.65</v>
       </c>
-      <c r="J310" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11102,14 +10836,10 @@
         <v>8818276.234834624</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="J311" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11143,12 +10873,12 @@
         <v>8835670.152807565</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11182,12 +10912,12 @@
         <v>8853639.362390326</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11221,12 +10951,12 @@
         <v>8850061.330490327</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11260,12 +10990,12 @@
         <v>8843255.465090327</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11299,12 +11029,12 @@
         <v>8843880.765090328</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11338,12 +11068,12 @@
         <v>8841264.340190327</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
         <v>28.8</v>
       </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11377,14 +11107,12 @@
         <v>8841264.340190327</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>28.6</v>
       </c>
-      <c r="J318" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11418,14 +11146,12 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>28.6</v>
       </c>
-      <c r="J319" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11459,12 +11185,12 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11498,12 +11224,12 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11537,14 +11263,12 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>28.5</v>
       </c>
-      <c r="J322" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11578,12 +11302,12 @@
         <v>8820788.988790326</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11617,12 +11341,12 @@
         <v>8820788.988790326</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11656,12 +11380,12 @@
         <v>8803852.225290326</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11695,12 +11419,12 @@
         <v>8786915.461790327</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11734,12 +11458,12 @@
         <v>8802952.695128307</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11773,12 +11497,12 @@
         <v>8785904.225728307</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11812,12 +11536,12 @@
         <v>8785904.225728307</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11851,12 +11575,12 @@
         <v>8786521.725728307</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11890,12 +11614,12 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
         <v>28.8</v>
       </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11929,12 +11653,12 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11968,14 +11692,12 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>28.37</v>
       </c>
-      <c r="J333" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12009,14 +11731,12 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>28.37</v>
       </c>
-      <c r="J334" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12050,14 +11770,12 @@
         <v>8721658.798528308</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>28.37</v>
       </c>
-      <c r="J335" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12091,12 +11809,12 @@
         <v>8721557.699528309</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12130,12 +11848,12 @@
         <v>8726622.621628309</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12169,14 +11887,12 @@
         <v>8746400.621628309</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>28.42</v>
       </c>
-      <c r="J338" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12210,14 +11926,12 @@
         <v>8746400.621628309</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>28.6</v>
       </c>
-      <c r="J339" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12251,12 +11965,12 @@
         <v>8728546.226728309</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12290,12 +12004,12 @@
         <v>8728744.73722831</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12329,12 +12043,12 @@
         <v>8791680.476828311</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12368,12 +12082,12 @@
         <v>8791680.476828311</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12385,6 +12099,6 @@
       <c r="M343" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest FCT.xlsx
+++ b/BackTest/2020-01-26 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>8424690.67070307</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>8442085.680387815</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>8442067.680387815</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>8442049.680387815</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>8442772.480387816</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>10633675.94828781</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>10662785.80128781</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>10663554.10128781</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>10657278.63898781</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>10658017.03898781</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>10692282.34451891</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>10692282.34451891</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>10626375.0336234</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>10627068.9961234</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>10621772.3043234</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>10621772.3043234</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>10628562.2595234</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>10657233.37292228</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>10667126.67752228</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>10672955.03062228</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>10666724.23562228</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>10666724.23562228</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>10683446.85769463</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>10737271.21253462</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>10737271.21253462</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>10721917.38103462</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>10691048.62103462</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>10710302.71733462</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>10695091.13943462</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>10695091.13943462</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>10689589.62683462</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>10730981.00383462</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>10699315.56523462</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>10611540.49073462</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>10612278.89073462</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>10659318.67883462</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>10704424.37713462</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>10666999.85643462</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>10666981.85643462</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>10647613.39813462</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>10648316.69813462</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>10638814.83103462</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>10638814.83103462</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>10376466.85983462</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>9789675.53773462</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>9789675.53773462</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>9790402.23773462</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>9790402.23773462</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>9758480.62463462</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6589,10 +6589,14 @@
         <v>9805145.673234621</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J188" t="n">
+        <v>28.7</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
@@ -6622,11 +6626,19 @@
         <v>9805673.945434621</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J189" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6667,19 @@
         <v>9806417.54543462</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="J190" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6939,17 @@
         <v>9593025.465934621</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>28.33</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +6978,17 @@
         <v>9593810.66593462</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>28.2</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7017,17 @@
         <v>9589447.418734621</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>28.74</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7060,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7097,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7134,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7171,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7208,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7245,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7282,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7319,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7356,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7393,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7430,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7467,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7504,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7541,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7578,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7615,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7652,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7689,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7726,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7763,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7800,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7837,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7874,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7911,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7948,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +7985,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8022,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8059,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8096,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8133,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8170,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,14 +8203,16 @@
         <v>9356108.573734622</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
@@ -9361,11 +9525,17 @@
         <v>8792443.779334623</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>28.31</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9564,17 @@
         <v>8792443.779334623</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>28.5</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9603,17 @@
         <v>8792443.779334623</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>28.5</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9642,17 @@
         <v>8834752.618034624</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>28.5</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9501,7 +9689,7 @@
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L276" t="n">
@@ -9840,11 +10028,9 @@
         <v>8774603.700434623</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -9996,11 +10182,9 @@
         <v>8753264.579034623</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -10035,11 +10219,9 @@
         <v>8753222.579034623</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -10113,11 +10295,9 @@
         <v>8761513.570834624</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>28.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10152,11 +10332,9 @@
         <v>8817355.760234624</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10269,11 +10447,9 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>28.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10308,11 +10484,9 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>28.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10347,11 +10521,9 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>28.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10386,11 +10558,9 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>28.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10721,11 +10891,9 @@
         <v>8821623.734834624</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>28.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -10797,11 +10965,9 @@
         <v>8822117.492434625</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>28.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -10873,11 +11039,9 @@
         <v>8835670.152807565</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>28.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -10912,11 +11076,9 @@
         <v>8853639.362390326</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -10951,11 +11113,9 @@
         <v>8850061.330490327</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>28.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -10990,11 +11150,9 @@
         <v>8843255.465090327</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>28.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -11029,11 +11187,9 @@
         <v>8843880.765090328</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -11068,11 +11224,9 @@
         <v>8841264.340190327</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -11107,11 +11261,9 @@
         <v>8841264.340190327</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -11146,11 +11298,9 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -11185,11 +11335,9 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -11224,11 +11372,9 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -11263,11 +11409,9 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -11302,11 +11446,9 @@
         <v>8820788.988790326</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -11341,11 +11483,9 @@
         <v>8820788.988790326</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>28.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11380,11 +11520,9 @@
         <v>8803852.225290326</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>28.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11419,11 +11557,9 @@
         <v>8786915.461790327</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11458,11 +11594,9 @@
         <v>8802952.695128307</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>28.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -11497,11 +11631,9 @@
         <v>8785904.225728307</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -11536,11 +11668,9 @@
         <v>8785904.225728307</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -11575,11 +11705,9 @@
         <v>8786521.725728307</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -11614,11 +11742,9 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -11653,11 +11779,9 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>28.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -11692,11 +11816,9 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>28.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -11731,11 +11853,9 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>28.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -11770,11 +11890,9 @@
         <v>8721658.798528308</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>28.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -11809,11 +11927,9 @@
         <v>8721557.699528309</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -11848,11 +11964,9 @@
         <v>8726622.621628309</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>28.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -11887,11 +12001,9 @@
         <v>8746400.621628309</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>28.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -11926,11 +12038,9 @@
         <v>8746400.621628309</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -11965,11 +12075,9 @@
         <v>8728546.226728309</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
@@ -12004,11 +12112,9 @@
         <v>8728744.73722831</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>28.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -12043,11 +12149,9 @@
         <v>8791680.476828311</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -12082,11 +12186,9 @@
         <v>8791680.476828311</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>28.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -12099,6 +12201,6 @@
       <c r="M343" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest FCT.xlsx
+++ b/BackTest/2020-01-26 BackTest FCT.xlsx
@@ -1012,7 +1012,7 @@
         <v>8442085.680387815</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>8442067.680387815</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>8442049.680387815</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>8442772.480387816</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>10633675.94828781</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>10662785.80128781</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>10663554.10128781</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>10657278.63898781</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>10658017.03898781</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>10692282.34451891</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>10692282.34451891</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>10626375.0336234</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>10627068.9961234</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>10621772.3043234</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>10621772.3043234</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>10628562.2595234</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>10657233.37292228</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>10653633.37292228</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>10666724.23562228</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>10683273.69319463</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>10683273.69319463</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>10737271.21253462</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>10737271.21253462</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>10721917.38103462</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>10691048.62103462</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>10710302.71733462</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>10695091.13943462</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>10695091.13943462</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>10689589.62683462</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>10699315.56523462</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>10704424.37713462</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>10666999.85643462</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>10666981.85643462</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6589,14 +6589,10 @@
         <v>9805145.673234621</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J188" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
@@ -6626,19 +6622,11 @@
         <v>9805673.945434621</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J189" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6667,19 +6655,11 @@
         <v>9806417.54543462</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>28.71</v>
-      </c>
-      <c r="J190" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6939,17 +6919,11 @@
         <v>9593025.465934621</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>28.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6978,17 +6952,11 @@
         <v>9593810.66593462</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>28.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7017,17 +6985,11 @@
         <v>9589447.418734621</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>28.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7060,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7097,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7134,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7171,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7208,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7245,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7319,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7356,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7393,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7430,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7467,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7504,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7541,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7578,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7615,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7652,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7689,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7726,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7763,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7800,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7837,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7874,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7911,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7948,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7985,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8022,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8059,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8096,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8133,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8170,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8203,16 +8041,14 @@
         <v>9356108.573734622</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
       <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
@@ -8799,10 +8635,14 @@
         <v>9218906.373534624</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J250" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
@@ -8835,8 +8675,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8868,8 +8714,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8901,8 +8753,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8934,8 +8792,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8967,8 +8831,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9000,8 +8870,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9033,8 +8909,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9066,8 +8948,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9099,8 +8987,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9132,8 +9026,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9165,8 +9065,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9198,8 +9104,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9231,8 +9143,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9264,8 +9182,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9297,8 +9221,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9330,8 +9260,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9363,8 +9299,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9396,8 +9338,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9429,8 +9377,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9462,8 +9416,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9495,8 +9455,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9525,15 +9491,15 @@
         <v>8792443.779334623</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9564,12 +9530,12 @@
         <v>8792443.779334623</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9603,12 +9569,12 @@
         <v>8792443.779334623</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9642,12 +9608,12 @@
         <v>8834752.618034624</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9686,7 +9652,9 @@
       <c r="I276" t="n">
         <v>28.6</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9720,10 +9688,14 @@
         <v>8835608.018034624</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="J277" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9757,10 +9729,14 @@
         <v>8812480.519834625</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="J278" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9799,7 +9775,9 @@
       <c r="I279" t="n">
         <v>28.4</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9838,7 +9816,9 @@
       <c r="I280" t="n">
         <v>28.4</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9877,7 +9857,9 @@
       <c r="I281" t="n">
         <v>28.31</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9916,7 +9898,9 @@
       <c r="I282" t="n">
         <v>28.4</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9955,7 +9939,9 @@
       <c r="I283" t="n">
         <v>28.31</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9994,7 +9980,9 @@
       <c r="I284" t="n">
         <v>28.5</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10028,10 +10016,14 @@
         <v>8774603.700434623</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J285" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10070,7 +10062,9 @@
       <c r="I286" t="n">
         <v>28.6</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10109,7 +10103,9 @@
       <c r="I287" t="n">
         <v>28.4</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10148,7 +10144,9 @@
       <c r="I288" t="n">
         <v>28.4</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10182,10 +10180,14 @@
         <v>8753264.579034623</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="J289" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10219,10 +10221,14 @@
         <v>8753222.579034623</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="J290" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10261,7 +10267,9 @@
       <c r="I291" t="n">
         <v>28.32</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10295,10 +10303,14 @@
         <v>8761513.570834624</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="J292" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10332,10 +10344,14 @@
         <v>8817355.760234624</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="J293" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10374,7 +10390,9 @@
       <c r="I294" t="n">
         <v>28.5</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10413,7 +10431,9 @@
       <c r="I295" t="n">
         <v>28.69</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10447,10 +10467,14 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="J296" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10484,10 +10508,14 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="J297" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10521,10 +10549,14 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="J298" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10558,10 +10590,14 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="J299" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10595,10 +10631,14 @@
         <v>8825274.649834624</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="J300" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10632,10 +10672,14 @@
         <v>8825274.649834624</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="J301" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10669,10 +10713,14 @@
         <v>8821643.034834623</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="J302" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10706,10 +10754,14 @@
         <v>8822339.834834624</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="J303" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10743,10 +10795,14 @@
         <v>8821641.734834624</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="J304" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10780,10 +10836,14 @@
         <v>8821623.734834624</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J305" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10817,10 +10877,14 @@
         <v>8821623.734834624</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="J306" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10854,10 +10918,14 @@
         <v>8821623.734834624</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="J307" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10891,10 +10959,14 @@
         <v>8821623.734834624</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="J308" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10928,10 +11000,14 @@
         <v>8821486.992434625</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="J309" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10965,10 +11041,14 @@
         <v>8822117.492434625</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="J310" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11002,10 +11082,14 @@
         <v>8818276.234834624</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="J311" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11039,10 +11123,14 @@
         <v>8835670.152807565</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="J312" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11076,10 +11164,14 @@
         <v>8853639.362390326</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J313" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11113,10 +11205,14 @@
         <v>8850061.330490327</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="J314" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11150,10 +11246,14 @@
         <v>8843255.465090327</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="J315" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11187,10 +11287,14 @@
         <v>8843880.765090328</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J316" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11224,10 +11328,14 @@
         <v>8841264.340190327</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J317" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11261,10 +11369,14 @@
         <v>8841264.340190327</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J318" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11298,10 +11410,14 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J319" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11335,10 +11451,14 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J320" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11372,10 +11492,14 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J321" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11409,10 +11533,14 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J322" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11446,10 +11574,14 @@
         <v>8820788.988790326</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J323" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11483,10 +11615,14 @@
         <v>8820788.988790326</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="J324" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11520,10 +11656,14 @@
         <v>8803852.225290326</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="J325" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11557,10 +11697,14 @@
         <v>8786915.461790327</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J326" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11594,10 +11738,14 @@
         <v>8802952.695128307</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="J327" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11631,10 +11779,14 @@
         <v>8785904.225728307</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J328" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11668,10 +11820,14 @@
         <v>8785904.225728307</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J329" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11705,10 +11861,14 @@
         <v>8786521.725728307</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J330" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11742,10 +11902,14 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J331" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11779,10 +11943,14 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="J332" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11816,10 +11984,14 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="J333" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11853,10 +12025,14 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="J334" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11890,10 +12066,14 @@
         <v>8721658.798528308</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="J335" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11927,10 +12107,14 @@
         <v>8721557.699528309</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J336" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11964,10 +12148,14 @@
         <v>8726622.621628309</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="J337" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12001,10 +12189,14 @@
         <v>8746400.621628309</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="J338" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12038,10 +12230,14 @@
         <v>8746400.621628309</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J339" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12075,10 +12271,14 @@
         <v>8728546.226728309</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J340" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12112,10 +12312,14 @@
         <v>8728744.73722831</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="J341" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12149,10 +12353,14 @@
         <v>8791680.476828311</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J342" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12186,10 +12394,14 @@
         <v>8791680.476828311</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="J343" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
